--- a/Data Normalization/new_data.xlsx
+++ b/Data Normalization/new_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>radius_mean</t>
   </si>
@@ -107,12 +107,6 @@
   </si>
   <si>
     <t>diagnosis</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
 </sst>
 </file>
@@ -643,8 +637,8 @@
       <c r="AD2" t="n">
         <v>0.4188639643185098</v>
       </c>
-      <c r="AE2" t="s">
-        <v>31</v>
+      <c r="AE2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -738,8 +732,8 @@
       <c r="AD3" t="n">
         <v>0.2228781319690411</v>
       </c>
-      <c r="AE3" t="s">
-        <v>31</v>
+      <c r="AE3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -833,8 +827,8 @@
       <c r="AD4" t="n">
         <v>0.2134330316148499</v>
       </c>
-      <c r="AE4" t="s">
-        <v>31</v>
+      <c r="AE4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -928,8 +922,8 @@
       <c r="AD5" t="n">
         <v>0.773711137347501</v>
       </c>
-      <c r="AE5" t="s">
-        <v>31</v>
+      <c r="AE5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -1023,8 +1017,8 @@
       <c r="AD6" t="n">
         <v>0.1425947789584154</v>
       </c>
-      <c r="AE6" t="s">
-        <v>31</v>
+      <c r="AE6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1118,8 +1112,8 @@
       <c r="AD7" t="n">
         <v>0.4549390003935459</v>
       </c>
-      <c r="AE7" t="s">
-        <v>31</v>
+      <c r="AE7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1213,8 +1207,8 @@
       <c r="AD8" t="n">
         <v>0.1878525514889152</v>
       </c>
-      <c r="AE8" t="s">
-        <v>31</v>
+      <c r="AE8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1308,8 +1302,8 @@
       <c r="AD9" t="n">
         <v>0.3939393939393939</v>
       </c>
-      <c r="AE9" t="s">
-        <v>31</v>
+      <c r="AE9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1403,8 +1397,8 @@
       <c r="AD10" t="n">
         <v>0.3421225239407058</v>
       </c>
-      <c r="AE10" t="s">
-        <v>31</v>
+      <c r="AE10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1498,8 +1492,8 @@
       <c r="AD11" t="n">
         <v>1</v>
       </c>
-      <c r="AE11" t="s">
-        <v>31</v>
+      <c r="AE11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1593,8 +1587,8 @@
       <c r="AD12" t="n">
         <v>0.1933621933621934</v>
       </c>
-      <c r="AE12" t="s">
-        <v>31</v>
+      <c r="AE12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1688,8 +1682,8 @@
       <c r="AD13" t="n">
         <v>0.3263806900170537</v>
       </c>
-      <c r="AE13" t="s">
-        <v>31</v>
+      <c r="AE13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1783,8 +1777,8 @@
       <c r="AD14" t="n">
         <v>0.3099829463465827</v>
       </c>
-      <c r="AE14" t="s">
-        <v>31</v>
+      <c r="AE14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1878,8 +1872,8 @@
       <c r="AD15" t="n">
         <v>0.05135773317591498</v>
       </c>
-      <c r="AE15" t="s">
-        <v>31</v>
+      <c r="AE15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -1973,8 +1967,8 @@
       <c r="AD16" t="n">
         <v>0.5775941230486685</v>
       </c>
-      <c r="AE16" t="s">
-        <v>31</v>
+      <c r="AE16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -2068,8 +2062,8 @@
       <c r="AD17" t="n">
         <v>0.5185622458349731</v>
       </c>
-      <c r="AE17" t="s">
-        <v>31</v>
+      <c r="AE17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2163,8 +2157,8 @@
       <c r="AD18" t="n">
         <v>0.1778827233372688</v>
       </c>
-      <c r="AE18" t="s">
-        <v>31</v>
+      <c r="AE18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2258,8 +2252,8 @@
       <c r="AD19" t="n">
         <v>0.3880362062180244</v>
       </c>
-      <c r="AE19" t="s">
-        <v>31</v>
+      <c r="AE19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -2353,8 +2347,8 @@
       <c r="AD20" t="n">
         <v>0.1384625475534566</v>
       </c>
-      <c r="AE20" t="s">
-        <v>31</v>
+      <c r="AE20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -2448,8 +2442,8 @@
       <c r="AD21" t="n">
         <v>0.115112160566706</v>
       </c>
-      <c r="AE21" t="s">
-        <v>32</v>
+      <c r="AE21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -2543,8 +2537,8 @@
       <c r="AD22" t="n">
         <v>0.1757182211727666</v>
       </c>
-      <c r="AE22" t="s">
-        <v>32</v>
+      <c r="AE22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -2638,8 +2632,8 @@
       <c r="AD23" t="n">
         <v>0.1488259215531943</v>
       </c>
-      <c r="AE23" t="s">
-        <v>32</v>
+      <c r="AE23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -2733,8 +2727,8 @@
       <c r="AD24" t="n">
         <v>0.2913551095369278</v>
       </c>
-      <c r="AE24" t="s">
-        <v>31</v>
+      <c r="AE24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -2828,8 +2822,8 @@
       <c r="AD25" t="n">
         <v>0.132624950806769</v>
       </c>
-      <c r="AE25" t="s">
-        <v>31</v>
+      <c r="AE25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -2923,8 +2917,8 @@
       <c r="AD26" t="n">
         <v>0.2662993572084482</v>
       </c>
-      <c r="AE26" t="s">
-        <v>31</v>
+      <c r="AE26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -3018,8 +3012,8 @@
       <c r="AD27" t="n">
         <v>0.3335956972320609</v>
       </c>
-      <c r="AE27" t="s">
-        <v>31</v>
+      <c r="AE27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -3113,8 +3107,8 @@
       <c r="AD28" t="n">
         <v>0.4752722025449299</v>
       </c>
-      <c r="AE28" t="s">
-        <v>31</v>
+      <c r="AE28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -3208,8 +3202,8 @@
       <c r="AD29" t="n">
         <v>0.1257378984651712</v>
       </c>
-      <c r="AE29" t="s">
-        <v>31</v>
+      <c r="AE29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -3303,8 +3297,8 @@
       <c r="AD30" t="n">
         <v>0.2867637413091959</v>
       </c>
-      <c r="AE30" t="s">
-        <v>31</v>
+      <c r="AE30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -3398,8 +3392,8 @@
       <c r="AD31" t="n">
         <v>0.1584022038567493</v>
       </c>
-      <c r="AE31" t="s">
-        <v>31</v>
+      <c r="AE31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -3493,8 +3487,8 @@
       <c r="AD32" t="n">
         <v>0.2805981896890988</v>
       </c>
-      <c r="AE32" t="s">
-        <v>31</v>
+      <c r="AE32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -3588,8 +3582,8 @@
       <c r="AD33" t="n">
         <v>0.5585727403909222</v>
       </c>
-      <c r="AE33" t="s">
-        <v>31</v>
+      <c r="AE33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -3683,8 +3677,8 @@
       <c r="AD34" t="n">
         <v>0.1953299226026499</v>
       </c>
-      <c r="AE34" t="s">
-        <v>31</v>
+      <c r="AE34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -3778,8 +3772,8 @@
       <c r="AD35" t="n">
         <v>0.3755739210284665</v>
       </c>
-      <c r="AE35" t="s">
-        <v>31</v>
+      <c r="AE35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -3873,8 +3867,8 @@
       <c r="AD36" t="n">
         <v>0.4477239931785388</v>
       </c>
-      <c r="AE36" t="s">
-        <v>31</v>
+      <c r="AE36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -3968,8 +3962,8 @@
       <c r="AD37" t="n">
         <v>0.2052341597796144</v>
       </c>
-      <c r="AE37" t="s">
-        <v>31</v>
+      <c r="AE37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -4063,8 +4057,8 @@
       <c r="AD38" t="n">
         <v>0.3040797586252132</v>
       </c>
-      <c r="AE38" t="s">
-        <v>31</v>
+      <c r="AE38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -4158,8 +4152,8 @@
       <c r="AD39" t="n">
         <v>0.04361799816345274</v>
       </c>
-      <c r="AE39" t="s">
-        <v>32</v>
+      <c r="AE39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -4253,8 +4247,8 @@
       <c r="AD40" t="n">
         <v>0</v>
       </c>
-      <c r="AE40" t="s">
-        <v>31</v>
+      <c r="AE40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -4348,8 +4342,8 @@
       <c r="AD41" t="n">
         <v>0.341466614193887</v>
       </c>
-      <c r="AE41" t="s">
-        <v>31</v>
+      <c r="AE41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -4443,8 +4437,8 @@
       <c r="AD42" t="n">
         <v>0.1077003804276531</v>
       </c>
-      <c r="AE42" t="s">
-        <v>31</v>
+      <c r="AE42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -4538,8 +4532,8 @@
       <c r="AD43" t="n">
         <v>0.2690541781450873</v>
       </c>
-      <c r="AE43" t="s">
-        <v>31</v>
+      <c r="AE43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -4633,8 +4627,8 @@
       <c r="AD44" t="n">
         <v>0.3198215925488653</v>
       </c>
-      <c r="AE44" t="s">
-        <v>31</v>
+      <c r="AE44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -4728,8 +4722,8 @@
       <c r="AD45" t="n">
         <v>0.3126065853338581</v>
       </c>
-      <c r="AE45" t="s">
-        <v>31</v>
+      <c r="AE45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -4823,8 +4817,8 @@
       <c r="AD46" t="n">
         <v>0.2698412698412699</v>
       </c>
-      <c r="AE46" t="s">
-        <v>31</v>
+      <c r="AE46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -4918,8 +4912,8 @@
       <c r="AD47" t="n">
         <v>0.2414403778040142</v>
       </c>
-      <c r="AE47" t="s">
-        <v>31</v>
+      <c r="AE47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -5013,8 +5007,8 @@
       <c r="AD48" t="n">
         <v>0.1249508067689886</v>
       </c>
-      <c r="AE48" t="s">
-        <v>32</v>
+      <c r="AE48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -5108,8 +5102,8 @@
       <c r="AD49" t="n">
         <v>0.4123048668503214</v>
       </c>
-      <c r="AE49" t="s">
-        <v>31</v>
+      <c r="AE49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -5203,8 +5197,8 @@
       <c r="AD50" t="n">
         <v>0.1834579561852289</v>
       </c>
-      <c r="AE50" t="s">
-        <v>32</v>
+      <c r="AE50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -5298,8 +5292,8 @@
       <c r="AD51" t="n">
         <v>0.09268004722550176</v>
       </c>
-      <c r="AE51" t="s">
-        <v>32</v>
+      <c r="AE51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -5393,8 +5387,8 @@
       <c r="AD52" t="n">
         <v>0.06946084218811489</v>
       </c>
-      <c r="AE52" t="s">
-        <v>32</v>
+      <c r="AE52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -5488,8 +5482,8 @@
       <c r="AD53" t="n">
         <v>0.165354847173029</v>
       </c>
-      <c r="AE53" t="s">
-        <v>32</v>
+      <c r="AE53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -5583,8 +5577,8 @@
       <c r="AD54" t="n">
         <v>0.1248852157943067</v>
       </c>
-      <c r="AE54" t="s">
-        <v>32</v>
+      <c r="AE54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -5678,8 +5672,8 @@
       <c r="AD55" t="n">
         <v>0.1628623901351174</v>
       </c>
-      <c r="AE55" t="s">
-        <v>31</v>
+      <c r="AE55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -5773,8 +5767,8 @@
       <c r="AD56" t="n">
         <v>0.1553850190213827</v>
       </c>
-      <c r="AE56" t="s">
-        <v>31</v>
+      <c r="AE56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -5868,8 +5862,8 @@
       <c r="AD57" t="n">
         <v>0.100485373212646</v>
       </c>
-      <c r="AE57" t="s">
-        <v>32</v>
+      <c r="AE57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -5963,8 +5957,8 @@
       <c r="AD58" t="n">
         <v>0.1829988193624557</v>
       </c>
-      <c r="AE58" t="s">
-        <v>31</v>
+      <c r="AE58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -6058,8 +6052,8 @@
       <c r="AD59" t="n">
         <v>0.3565525383707202</v>
       </c>
-      <c r="AE59" t="s">
-        <v>31</v>
+      <c r="AE59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -6153,8 +6147,8 @@
       <c r="AD60" t="n">
         <v>0.05148891512527878</v>
       </c>
-      <c r="AE60" t="s">
-        <v>32</v>
+      <c r="AE60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -6248,8 +6242,8 @@
       <c r="AD61" t="n">
         <v>0.2310114128295947</v>
       </c>
-      <c r="AE61" t="s">
-        <v>32</v>
+      <c r="AE61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -6343,8 +6337,8 @@
       <c r="AD62" t="n">
         <v>0.1650268922996196</v>
       </c>
-      <c r="AE62" t="s">
-        <v>32</v>
+      <c r="AE62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -6438,8 +6432,8 @@
       <c r="AD63" t="n">
         <v>0.1448248720975994</v>
       </c>
-      <c r="AE63" t="s">
-        <v>32</v>
+      <c r="AE63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -6533,8 +6527,8 @@
       <c r="AD64" t="n">
         <v>0.381477108749836</v>
       </c>
-      <c r="AE64" t="s">
-        <v>31</v>
+      <c r="AE64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -6628,8 +6622,8 @@
       <c r="AD65" t="n">
         <v>0.195854650400105</v>
       </c>
-      <c r="AE65" t="s">
-        <v>32</v>
+      <c r="AE65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -6723,8 +6717,8 @@
       <c r="AD66" t="n">
         <v>0.3152302243211335</v>
       </c>
-      <c r="AE66" t="s">
-        <v>31</v>
+      <c r="AE66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -6818,8 +6812,8 @@
       <c r="AD67" t="n">
         <v>0.223468450741178</v>
       </c>
-      <c r="AE67" t="s">
-        <v>31</v>
+      <c r="AE67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -6913,8 +6907,8 @@
       <c r="AD68" t="n">
         <v>0.2431457431457432</v>
       </c>
-      <c r="AE68" t="s">
-        <v>32</v>
+      <c r="AE68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -7008,8 +7002,8 @@
       <c r="AD69" t="n">
         <v>0.07457693821330184</v>
       </c>
-      <c r="AE69" t="s">
-        <v>32</v>
+      <c r="AE69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -7103,8 +7097,8 @@
       <c r="AD70" t="n">
         <v>0.4096812278630461</v>
       </c>
-      <c r="AE70" t="s">
-        <v>32</v>
+      <c r="AE70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -7198,8 +7192,8 @@
       <c r="AD71" t="n">
         <v>0.05942542306178674</v>
       </c>
-      <c r="AE71" t="s">
-        <v>32</v>
+      <c r="AE71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -7293,8 +7287,8 @@
       <c r="AD72" t="n">
         <v>0.07116620752984394</v>
       </c>
-      <c r="AE72" t="s">
-        <v>31</v>
+      <c r="AE72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -7388,8 +7382,8 @@
       <c r="AD73" t="n">
         <v>0.3499934409025318</v>
       </c>
-      <c r="AE73" t="s">
-        <v>32</v>
+      <c r="AE73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:31">
@@ -7483,8 +7477,8 @@
       <c r="AD74" t="n">
         <v>0.5172504263413354</v>
       </c>
-      <c r="AE74" t="s">
-        <v>31</v>
+      <c r="AE74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:31">
@@ -7578,8 +7572,8 @@
       <c r="AD75" t="n">
         <v>0.3145743145743146</v>
       </c>
-      <c r="AE75" t="s">
-        <v>31</v>
+      <c r="AE75" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:31">
@@ -7673,8 +7667,8 @@
       <c r="AD76" t="n">
         <v>0.1380690017053654</v>
       </c>
-      <c r="AE76" t="s">
-        <v>32</v>
+      <c r="AE76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:31">
@@ -7768,8 +7762,8 @@
       <c r="AD77" t="n">
         <v>0.05791683064410336</v>
       </c>
-      <c r="AE77" t="s">
-        <v>31</v>
+      <c r="AE77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:31">
@@ -7863,8 +7857,8 @@
       <c r="AD78" t="n">
         <v>0.110651974288338</v>
       </c>
-      <c r="AE78" t="s">
-        <v>32</v>
+      <c r="AE78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:31">
@@ -7958,8 +7952,8 @@
       <c r="AD79" t="n">
         <v>0.365735274826184</v>
       </c>
-      <c r="AE79" t="s">
-        <v>31</v>
+      <c r="AE79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:31">
@@ -8053,8 +8047,8 @@
       <c r="AD80" t="n">
         <v>0.2925357470812017</v>
       </c>
-      <c r="AE80" t="s">
-        <v>31</v>
+      <c r="AE80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:31">
@@ -8148,8 +8142,8 @@
       <c r="AD81" t="n">
         <v>0.1583366128820675</v>
       </c>
-      <c r="AE81" t="s">
-        <v>32</v>
+      <c r="AE81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:31">
@@ -8243,8 +8237,8 @@
       <c r="AD82" t="n">
         <v>0.219532992260265</v>
       </c>
-      <c r="AE82" t="s">
-        <v>32</v>
+      <c r="AE82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:31">
@@ -8338,8 +8332,8 @@
       <c r="AD83" t="n">
         <v>0.3053915781188509</v>
       </c>
-      <c r="AE83" t="s">
-        <v>32</v>
+      <c r="AE83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:31">
@@ -8433,8 +8427,8 @@
       <c r="AD84" t="n">
         <v>0.3283484192575102</v>
       </c>
-      <c r="AE84" t="s">
-        <v>31</v>
+      <c r="AE84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:31">
@@ -8528,8 +8522,8 @@
       <c r="AD85" t="n">
         <v>0.2426210153482881</v>
       </c>
-      <c r="AE85" t="s">
-        <v>31</v>
+      <c r="AE85" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:31">
@@ -8623,8 +8617,8 @@
       <c r="AD86" t="n">
         <v>0.1587301587301588</v>
       </c>
-      <c r="AE86" t="s">
-        <v>32</v>
+      <c r="AE86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:31">
@@ -8718,8 +8712,8 @@
       <c r="AD87" t="n">
         <v>0.2016922471467927</v>
       </c>
-      <c r="AE87" t="s">
-        <v>31</v>
+      <c r="AE87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:31">
@@ -8813,8 +8807,8 @@
       <c r="AD88" t="n">
         <v>0.08802308802308799</v>
       </c>
-      <c r="AE88" t="s">
-        <v>31</v>
+      <c r="AE88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:31">
@@ -8908,8 +8902,8 @@
       <c r="AD89" t="n">
         <v>0.2481962481962482</v>
       </c>
-      <c r="AE89" t="s">
-        <v>31</v>
+      <c r="AE89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:31">
@@ -9003,8 +8997,8 @@
       <c r="AD90" t="n">
         <v>0.2464252918798374</v>
       </c>
-      <c r="AE90" t="s">
-        <v>32</v>
+      <c r="AE90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:31">
@@ -9098,8 +9092,8 @@
       <c r="AD91" t="n">
         <v>0.1947396038305129</v>
       </c>
-      <c r="AE91" t="s">
-        <v>32</v>
+      <c r="AE91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:31">
@@ -9193,8 +9187,8 @@
       <c r="AD92" t="n">
         <v>0.1142594778958415</v>
       </c>
-      <c r="AE92" t="s">
-        <v>32</v>
+      <c r="AE92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:31">
@@ -9288,8 +9282,8 @@
       <c r="AD93" t="n">
         <v>0.08684245047881409</v>
       </c>
-      <c r="AE93" t="s">
-        <v>31</v>
+      <c r="AE93" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:31">
@@ -9383,8 +9377,8 @@
       <c r="AD94" t="n">
         <v>0.0460448642266824</v>
       </c>
-      <c r="AE94" t="s">
-        <v>32</v>
+      <c r="AE94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:31">
@@ -9478,8 +9472,8 @@
       <c r="AD95" t="n">
         <v>0.07208448117539032</v>
       </c>
-      <c r="AE95" t="s">
-        <v>32</v>
+      <c r="AE95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:31">
@@ -9573,8 +9567,8 @@
       <c r="AD96" t="n">
         <v>0.1790633608815427</v>
       </c>
-      <c r="AE96" t="s">
-        <v>31</v>
+      <c r="AE96" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:31">
@@ -9668,8 +9662,8 @@
       <c r="AD97" t="n">
         <v>0.1878525514889152</v>
       </c>
-      <c r="AE97" t="s">
-        <v>31</v>
+      <c r="AE97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:31">
@@ -9763,8 +9757,8 @@
       <c r="AD98" t="n">
         <v>0.1227863046044865</v>
       </c>
-      <c r="AE98" t="s">
-        <v>32</v>
+      <c r="AE98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:31">
@@ -9858,8 +9852,8 @@
       <c r="AD99" t="n">
         <v>0.2285189557916831</v>
       </c>
-      <c r="AE99" t="s">
-        <v>32</v>
+      <c r="AE99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:31">
@@ -9953,8 +9947,8 @@
       <c r="AD100" t="n">
         <v>0.213301849665486</v>
       </c>
-      <c r="AE100" t="s">
-        <v>32</v>
+      <c r="AE100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:31">
@@ -10048,8 +10042,8 @@
       <c r="AD101" t="n">
         <v>0.2524596615505707</v>
       </c>
-      <c r="AE101" t="s">
-        <v>31</v>
+      <c r="AE101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:31">
@@ -10143,8 +10137,8 @@
       <c r="AD102" t="n">
         <v>0.124163715072806</v>
       </c>
-      <c r="AE102" t="s">
-        <v>31</v>
+      <c r="AE102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:31">
@@ -10238,8 +10232,8 @@
       <c r="AD103" t="n">
         <v>0.2543617998163453</v>
       </c>
-      <c r="AE103" t="s">
-        <v>32</v>
+      <c r="AE103" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:31">
@@ -10333,8 +10327,8 @@
       <c r="AD104" t="n">
         <v>0.09012199921290828</v>
       </c>
-      <c r="AE104" t="s">
-        <v>32</v>
+      <c r="AE104" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:31">
@@ -10428,8 +10422,8 @@
       <c r="AD105" t="n">
         <v>0.195854650400105</v>
       </c>
-      <c r="AE105" t="s">
-        <v>32</v>
+      <c r="AE105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:31">
@@ -10523,8 +10517,8 @@
       <c r="AD106" t="n">
         <v>0.134330316148498</v>
       </c>
-      <c r="AE106" t="s">
-        <v>32</v>
+      <c r="AE106" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:31">
@@ -10618,8 +10612,8 @@
       <c r="AD107" t="n">
         <v>0.5605404696313788</v>
       </c>
-      <c r="AE107" t="s">
-        <v>31</v>
+      <c r="AE107" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:31">
@@ -10713,8 +10707,8 @@
       <c r="AD108" t="n">
         <v>0.2356683720320084</v>
       </c>
-      <c r="AE108" t="s">
-        <v>32</v>
+      <c r="AE108" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:31">
@@ -10808,8 +10802,8 @@
       <c r="AD109" t="n">
         <v>0.1102584284402466</v>
       </c>
-      <c r="AE109" t="s">
-        <v>32</v>
+      <c r="AE109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:31">
@@ -10903,8 +10897,8 @@
       <c r="AD110" t="n">
         <v>0.281057326511872</v>
       </c>
-      <c r="AE110" t="s">
-        <v>31</v>
+      <c r="AE110" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:31">
@@ -10998,8 +10992,8 @@
       <c r="AD111" t="n">
         <v>0.2182867637413092</v>
       </c>
-      <c r="AE111" t="s">
-        <v>32</v>
+      <c r="AE111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:31">
@@ -11093,8 +11087,8 @@
       <c r="AD112" t="n">
         <v>0.1944116489571036</v>
       </c>
-      <c r="AE112" t="s">
-        <v>32</v>
+      <c r="AE112" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:31">
@@ -11188,8 +11182,8 @@
       <c r="AD113" t="n">
         <v>0.1955922865013775</v>
       </c>
-      <c r="AE113" t="s">
-        <v>32</v>
+      <c r="AE113" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:31">
@@ -11283,8 +11277,8 @@
       <c r="AD114" t="n">
         <v>0.3486816214088942</v>
       </c>
-      <c r="AE114" t="s">
-        <v>32</v>
+      <c r="AE114" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:31">
@@ -11378,8 +11372,8 @@
       <c r="AD115" t="n">
         <v>0.2310114128295947</v>
       </c>
-      <c r="AE115" t="s">
-        <v>32</v>
+      <c r="AE115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:31">
@@ -11473,8 +11467,8 @@
       <c r="AD116" t="n">
         <v>0.3060474878656697</v>
       </c>
-      <c r="AE116" t="s">
-        <v>32</v>
+      <c r="AE116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:31">
@@ -11568,8 +11562,8 @@
       <c r="AD117" t="n">
         <v>0.1991997901088811</v>
       </c>
-      <c r="AE117" t="s">
-        <v>32</v>
+      <c r="AE117" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:31">
@@ -11663,8 +11657,8 @@
       <c r="AD118" t="n">
         <v>0.1454807818444182</v>
       </c>
-      <c r="AE118" t="s">
-        <v>32</v>
+      <c r="AE118" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:31">
@@ -11758,8 +11752,8 @@
       <c r="AD119" t="n">
         <v>0.3375311557129739</v>
       </c>
-      <c r="AE119" t="s">
-        <v>31</v>
+      <c r="AE119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:31">
@@ -11853,8 +11847,8 @@
       <c r="AD120" t="n">
         <v>0.4601862783680966</v>
       </c>
-      <c r="AE120" t="s">
-        <v>31</v>
+      <c r="AE120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:31">
@@ -11948,8 +11942,8 @@
       <c r="AD121" t="n">
         <v>0.03981372163190345</v>
       </c>
-      <c r="AE121" t="s">
-        <v>31</v>
+      <c r="AE121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:31">
@@ -12043,8 +12037,8 @@
       <c r="AD122" t="n">
         <v>0.1980191525646071</v>
       </c>
-      <c r="AE122" t="s">
-        <v>32</v>
+      <c r="AE122" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:31">
@@ -12138,8 +12132,8 @@
       <c r="AD123" t="n">
         <v>0.1936245572609209</v>
       </c>
-      <c r="AE123" t="s">
-        <v>31</v>
+      <c r="AE123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:31">
@@ -12233,8 +12227,8 @@
       <c r="AD124" t="n">
         <v>0.1643053915781189</v>
       </c>
-      <c r="AE124" t="s">
-        <v>31</v>
+      <c r="AE124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:31">
@@ -12328,8 +12322,8 @@
       <c r="AD125" t="n">
         <v>0.1641086186540733</v>
       </c>
-      <c r="AE125" t="s">
-        <v>32</v>
+      <c r="AE125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:31">
@@ -12423,8 +12417,8 @@
       <c r="AD126" t="n">
         <v>0.1393152302243212</v>
       </c>
-      <c r="AE126" t="s">
-        <v>32</v>
+      <c r="AE126" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:31">
@@ -12518,8 +12512,8 @@
       <c r="AD127" t="n">
         <v>0.110061655516201</v>
       </c>
-      <c r="AE127" t="s">
-        <v>32</v>
+      <c r="AE127" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:31">
@@ -12613,8 +12607,8 @@
       <c r="AD128" t="n">
         <v>0.1571559753377935</v>
       </c>
-      <c r="AE128" t="s">
-        <v>31</v>
+      <c r="AE128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:31">
@@ -12708,8 +12702,8 @@
       <c r="AD129" t="n">
         <v>0.06801784074511347</v>
       </c>
-      <c r="AE129" t="s">
-        <v>31</v>
+      <c r="AE129" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:31">
@@ -12803,8 +12797,8 @@
       <c r="AD130" t="n">
         <v>0.1492194674012856</v>
       </c>
-      <c r="AE130" t="s">
-        <v>32</v>
+      <c r="AE130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:31">
@@ -12898,8 +12892,8 @@
       <c r="AD131" t="n">
         <v>0.1942148760330579</v>
       </c>
-      <c r="AE131" t="s">
-        <v>31</v>
+      <c r="AE131" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:31">
@@ -12993,8 +12987,8 @@
       <c r="AD132" t="n">
         <v>0.2451134723861997</v>
       </c>
-      <c r="AE132" t="s">
-        <v>32</v>
+      <c r="AE132" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:31">
@@ -13088,8 +13082,8 @@
       <c r="AD133" t="n">
         <v>0.1649613013249377</v>
       </c>
-      <c r="AE133" t="s">
-        <v>31</v>
+      <c r="AE133" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:31">
@@ -13183,8 +13177,8 @@
       <c r="AD134" t="n">
         <v>0.1387249114521842</v>
       </c>
-      <c r="AE134" t="s">
-        <v>31</v>
+      <c r="AE134" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:31">
@@ -13278,8 +13272,8 @@
       <c r="AD135" t="n">
         <v>0.1027810573265119</v>
       </c>
-      <c r="AE135" t="s">
-        <v>32</v>
+      <c r="AE135" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:31">
@@ -13373,8 +13367,8 @@
       <c r="AD136" t="n">
         <v>0.1381345926800472</v>
       </c>
-      <c r="AE136" t="s">
-        <v>31</v>
+      <c r="AE136" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:31">
@@ -13468,8 +13462,8 @@
       <c r="AD137" t="n">
         <v>0.1681096681096682</v>
       </c>
-      <c r="AE137" t="s">
-        <v>31</v>
+      <c r="AE137" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:31">
@@ -13563,8 +13557,8 @@
       <c r="AD138" t="n">
         <v>0.1206218024399842</v>
       </c>
-      <c r="AE138" t="s">
-        <v>32</v>
+      <c r="AE138" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:31">
@@ -13658,8 +13652,8 @@
       <c r="AD139" t="n">
         <v>0.08271021907385546</v>
       </c>
-      <c r="AE139" t="s">
-        <v>32</v>
+      <c r="AE139" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:31">
@@ -13753,8 +13747,8 @@
       <c r="AD140" t="n">
         <v>0.1077659714023351</v>
       </c>
-      <c r="AE140" t="s">
-        <v>31</v>
+      <c r="AE140" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:31">
@@ -13848,8 +13842,8 @@
       <c r="AD141" t="n">
         <v>0.08395644759281123</v>
       </c>
-      <c r="AE141" t="s">
-        <v>32</v>
+      <c r="AE141" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:31">
@@ -13943,8 +13937,8 @@
       <c r="AD142" t="n">
         <v>0.1736193099829464</v>
       </c>
-      <c r="AE142" t="s">
-        <v>32</v>
+      <c r="AE142" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:31">
@@ -14038,8 +14032,8 @@
       <c r="AD143" t="n">
         <v>0.1740784468057195</v>
       </c>
-      <c r="AE143" t="s">
-        <v>31</v>
+      <c r="AE143" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:31">
@@ -14133,8 +14127,8 @@
       <c r="AD144" t="n">
         <v>0.1700118063754428</v>
       </c>
-      <c r="AE144" t="s">
-        <v>32</v>
+      <c r="AE144" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:31">
@@ -14228,8 +14222,8 @@
       <c r="AD145" t="n">
         <v>0.1714548078184442</v>
       </c>
-      <c r="AE145" t="s">
-        <v>32</v>
+      <c r="AE145" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:31">
@@ -14323,8 +14317,8 @@
       <c r="AD146" t="n">
         <v>0.08297258297258299</v>
       </c>
-      <c r="AE146" t="s">
-        <v>32</v>
+      <c r="AE146" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:31">
@@ -14418,8 +14412,8 @@
       <c r="AD147" t="n">
         <v>0.3185097730552277</v>
       </c>
-      <c r="AE147" t="s">
-        <v>32</v>
+      <c r="AE147" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:31">
@@ -14513,8 +14507,8 @@
       <c r="AD148" t="n">
         <v>0.3145743145743146</v>
       </c>
-      <c r="AE148" t="s">
-        <v>31</v>
+      <c r="AE148" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:31">
@@ -14608,8 +14602,8 @@
       <c r="AD149" t="n">
         <v>0.2436048799685163</v>
       </c>
-      <c r="AE149" t="s">
-        <v>32</v>
+      <c r="AE149" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:31">
@@ -14703,8 +14697,8 @@
       <c r="AD150" t="n">
         <v>0.1429227338318247</v>
       </c>
-      <c r="AE150" t="s">
-        <v>32</v>
+      <c r="AE150" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:31">
@@ -14798,8 +14792,8 @@
       <c r="AD151" t="n">
         <v>0.09904237176964448</v>
       </c>
-      <c r="AE151" t="s">
-        <v>32</v>
+      <c r="AE151" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:31">
@@ -14893,8 +14887,8 @@
       <c r="AD152" t="n">
         <v>0.06106519742883384</v>
       </c>
-      <c r="AE152" t="s">
-        <v>32</v>
+      <c r="AE152" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:31">
@@ -14988,8 +14982,8 @@
       <c r="AD153" t="n">
         <v>0.6136691591237047</v>
       </c>
-      <c r="AE153" t="s">
-        <v>32</v>
+      <c r="AE153" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:31">
@@ -15083,8 +15077,8 @@
       <c r="AD154" t="n">
         <v>0.4647776465958285</v>
       </c>
-      <c r="AE154" t="s">
-        <v>32</v>
+      <c r="AE154" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:31">
@@ -15178,8 +15172,8 @@
       <c r="AD155" t="n">
         <v>0.08316935589662866</v>
       </c>
-      <c r="AE155" t="s">
-        <v>32</v>
+      <c r="AE155" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:31">
@@ -15273,8 +15267,8 @@
       <c r="AD156" t="n">
         <v>0.2052341597796144</v>
       </c>
-      <c r="AE156" t="s">
-        <v>32</v>
+      <c r="AE156" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:31">
@@ -15368,8 +15362,8 @@
       <c r="AD157" t="n">
         <v>0.1723730814639906</v>
       </c>
-      <c r="AE157" t="s">
-        <v>32</v>
+      <c r="AE157" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:31">
@@ -15463,8 +15457,8 @@
       <c r="AD158" t="n">
         <v>0.1465302374393284</v>
       </c>
-      <c r="AE158" t="s">
-        <v>31</v>
+      <c r="AE158" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:31">
@@ -15558,8 +15552,8 @@
       <c r="AD159" t="n">
         <v>0.03069657615112163</v>
       </c>
-      <c r="AE159" t="s">
-        <v>32</v>
+      <c r="AE159" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:31">
@@ -15653,8 +15647,8 @@
       <c r="AD160" t="n">
         <v>0.1570247933884297</v>
       </c>
-      <c r="AE160" t="s">
-        <v>32</v>
+      <c r="AE160" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:31">
@@ -15748,8 +15742,8 @@
       <c r="AD161" t="n">
         <v>0.1430539157811885</v>
       </c>
-      <c r="AE161" t="s">
-        <v>32</v>
+      <c r="AE161" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:31">
@@ -15843,8 +15837,8 @@
       <c r="AD162" t="n">
         <v>0.1628623901351174</v>
       </c>
-      <c r="AE162" t="s">
-        <v>32</v>
+      <c r="AE162" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:31">
@@ -15938,8 +15932,8 @@
       <c r="AD163" t="n">
         <v>0.04899645808736717</v>
       </c>
-      <c r="AE163" t="s">
-        <v>31</v>
+      <c r="AE163" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:31">
@@ -16033,8 +16027,8 @@
       <c r="AD164" t="n">
         <v>0.2439328348419258</v>
       </c>
-      <c r="AE164" t="s">
-        <v>31</v>
+      <c r="AE164" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:31">
@@ -16128,8 +16122,8 @@
       <c r="AD165" t="n">
         <v>0.2346845074117802</v>
       </c>
-      <c r="AE165" t="s">
-        <v>32</v>
+      <c r="AE165" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:31">
@@ -16223,8 +16217,8 @@
       <c r="AD166" t="n">
         <v>0.2415715597533779</v>
       </c>
-      <c r="AE166" t="s">
-        <v>31</v>
+      <c r="AE166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:31">
@@ -16318,8 +16312,8 @@
       <c r="AD167" t="n">
         <v>0.03810835629017449</v>
       </c>
-      <c r="AE167" t="s">
-        <v>32</v>
+      <c r="AE167" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:31">
@@ -16413,8 +16407,8 @@
       <c r="AD168" t="n">
         <v>0.1439721894267349</v>
       </c>
-      <c r="AE168" t="s">
-        <v>32</v>
+      <c r="AE168" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:31">
@@ -16508,8 +16502,8 @@
       <c r="AD169" t="n">
         <v>0.1130788403515676</v>
       </c>
-      <c r="AE169" t="s">
-        <v>31</v>
+      <c r="AE169" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:31">
@@ -16603,8 +16597,8 @@
       <c r="AD170" t="n">
         <v>0.2489833398924308</v>
       </c>
-      <c r="AE170" t="s">
-        <v>31</v>
+      <c r="AE170" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:31">
@@ -16698,8 +16692,8 @@
       <c r="AD171" t="n">
         <v>0.06060606060606065</v>
       </c>
-      <c r="AE171" t="s">
-        <v>32</v>
+      <c r="AE171" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:31">
@@ -16793,8 +16787,8 @@
       <c r="AD172" t="n">
         <v>0.08310376492194679</v>
       </c>
-      <c r="AE172" t="s">
-        <v>32</v>
+      <c r="AE172" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:31">
@@ -16888,8 +16882,8 @@
       <c r="AD173" t="n">
         <v>0.122458349731077</v>
       </c>
-      <c r="AE173" t="s">
-        <v>31</v>
+      <c r="AE173" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:31">
@@ -16983,8 +16977,8 @@
       <c r="AD174" t="n">
         <v>0.3014561196379379</v>
       </c>
-      <c r="AE174" t="s">
-        <v>31</v>
+      <c r="AE174" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:31">
@@ -17078,8 +17072,8 @@
       <c r="AD175" t="n">
         <v>0.1186540731995278</v>
       </c>
-      <c r="AE175" t="s">
-        <v>32</v>
+      <c r="AE175" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:31">
@@ -17173,8 +17167,8 @@
       <c r="AD176" t="n">
         <v>0.0432900432900433</v>
       </c>
-      <c r="AE176" t="s">
-        <v>32</v>
+      <c r="AE176" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:31">
@@ -17268,8 +17262,8 @@
       <c r="AD177" t="n">
         <v>0.1537452446543356</v>
       </c>
-      <c r="AE177" t="s">
-        <v>32</v>
+      <c r="AE177" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:31">
@@ -17363,8 +17357,8 @@
       <c r="AD178" t="n">
         <v>0.4011544011544012</v>
       </c>
-      <c r="AE178" t="s">
-        <v>32</v>
+      <c r="AE178" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:31">
@@ -17458,8 +17452,8 @@
       <c r="AD179" t="n">
         <v>0.2633477633477634</v>
       </c>
-      <c r="AE179" t="s">
-        <v>31</v>
+      <c r="AE179" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:31">
@@ -17553,8 +17547,8 @@
       <c r="AD180" t="n">
         <v>0.02223534041715863</v>
       </c>
-      <c r="AE180" t="s">
-        <v>32</v>
+      <c r="AE180" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:31">
@@ -17648,8 +17642,8 @@
       <c r="AD181" t="n">
         <v>0.1190476190476191</v>
       </c>
-      <c r="AE181" t="s">
-        <v>32</v>
+      <c r="AE181" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:31">
@@ -17743,8 +17737,8 @@
       <c r="AD182" t="n">
         <v>0.1690935327298964</v>
       </c>
-      <c r="AE182" t="s">
-        <v>31</v>
+      <c r="AE182" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:31">
@@ -17838,8 +17832,8 @@
       <c r="AD183" t="n">
         <v>0.4811753902662993</v>
       </c>
-      <c r="AE183" t="s">
-        <v>31</v>
+      <c r="AE183" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:31">
@@ -17933,8 +17927,8 @@
       <c r="AD184" t="n">
         <v>0.2051029778302506</v>
       </c>
-      <c r="AE184" t="s">
-        <v>31</v>
+      <c r="AE184" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:31">
@@ -18028,8 +18022,8 @@
       <c r="AD185" t="n">
         <v>0.1261314443132625</v>
       </c>
-      <c r="AE185" t="s">
-        <v>32</v>
+      <c r="AE185" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:31">
@@ -18123,8 +18117,8 @@
       <c r="AD186" t="n">
         <v>0.27994227994228</v>
       </c>
-      <c r="AE186" t="s">
-        <v>31</v>
+      <c r="AE186" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:31">
@@ -18218,8 +18212,8 @@
       <c r="AD187" t="n">
         <v>0.1438410074773711</v>
       </c>
-      <c r="AE187" t="s">
-        <v>32</v>
+      <c r="AE187" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:31">
@@ -18313,8 +18307,8 @@
       <c r="AD188" t="n">
         <v>0.09405745769382133</v>
       </c>
-      <c r="AE188" t="s">
-        <v>31</v>
+      <c r="AE188" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:31">
@@ -18408,8 +18402,8 @@
       <c r="AD189" t="n">
         <v>0.1044864226682409</v>
       </c>
-      <c r="AE189" t="s">
-        <v>32</v>
+      <c r="AE189" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:31">
@@ -18503,8 +18497,8 @@
       <c r="AD190" t="n">
         <v>0.07031352485897942</v>
       </c>
-      <c r="AE190" t="s">
-        <v>32</v>
+      <c r="AE190" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:31">
@@ -18598,8 +18592,8 @@
       <c r="AD191" t="n">
         <v>0.05260396169487083</v>
       </c>
-      <c r="AE191" t="s">
-        <v>32</v>
+      <c r="AE191" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:31">
@@ -18693,8 +18687,8 @@
       <c r="AD192" t="n">
         <v>0.5874327692509511</v>
       </c>
-      <c r="AE192" t="s">
-        <v>31</v>
+      <c r="AE192" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:31">
@@ -18788,8 +18782,8 @@
       <c r="AD193" t="n">
         <v>0.08966286239013509</v>
       </c>
-      <c r="AE193" t="s">
-        <v>32</v>
+      <c r="AE193" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:31">
@@ -18883,8 +18877,8 @@
       <c r="AD194" t="n">
         <v>0.06919847828938737</v>
       </c>
-      <c r="AE194" t="s">
-        <v>32</v>
+      <c r="AE194" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:31">
@@ -18978,8 +18972,8 @@
       <c r="AD195" t="n">
         <v>0.4293585202676112</v>
       </c>
-      <c r="AE195" t="s">
-        <v>31</v>
+      <c r="AE195" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:31">
@@ -19073,8 +19067,8 @@
       <c r="AD196" t="n">
         <v>0.2096943460579825</v>
       </c>
-      <c r="AE196" t="s">
-        <v>31</v>
+      <c r="AE196" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:31">
@@ -19168,8 +19162,8 @@
       <c r="AD197" t="n">
         <v>0.09477895841532205</v>
       </c>
-      <c r="AE197" t="s">
-        <v>32</v>
+      <c r="AE197" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:31">
@@ -19263,8 +19257,8 @@
       <c r="AD198" t="n">
         <v>0.251147842056933</v>
       </c>
-      <c r="AE198" t="s">
-        <v>31</v>
+      <c r="AE198" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:31">
@@ -19358,8 +19352,8 @@
       <c r="AD199" t="n">
         <v>0.0691328873147055</v>
       </c>
-      <c r="AE199" t="s">
-        <v>31</v>
+      <c r="AE199" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:31">
@@ -19453,8 +19447,8 @@
       <c r="AD200" t="n">
         <v>0.243801652892562</v>
       </c>
-      <c r="AE200" t="s">
-        <v>31</v>
+      <c r="AE200" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:31">
@@ -19548,8 +19542,8 @@
       <c r="AD201" t="n">
         <v>0.3034238488783944</v>
       </c>
-      <c r="AE201" t="s">
-        <v>31</v>
+      <c r="AE201" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:31">
@@ -19643,8 +19637,8 @@
       <c r="AD202" t="n">
         <v>0.1751279024006296</v>
       </c>
-      <c r="AE202" t="s">
-        <v>32</v>
+      <c r="AE202" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:31">
@@ -19738,8 +19732,8 @@
       <c r="AD203" t="n">
         <v>0.1549914731732914</v>
       </c>
-      <c r="AE203" t="s">
-        <v>31</v>
+      <c r="AE203" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:31">
@@ -19833,8 +19827,8 @@
       <c r="AD204" t="n">
         <v>0.2136953955135774</v>
       </c>
-      <c r="AE204" t="s">
-        <v>31</v>
+      <c r="AE204" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:31">
@@ -19928,8 +19922,8 @@
       <c r="AD205" t="n">
         <v>0.3513052603961695</v>
       </c>
-      <c r="AE205" t="s">
-        <v>31</v>
+      <c r="AE205" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:31">
@@ -20023,8 +20017,8 @@
       <c r="AD206" t="n">
         <v>0.2129083038173947</v>
       </c>
-      <c r="AE206" t="s">
-        <v>32</v>
+      <c r="AE206" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:31">
@@ -20118,8 +20112,8 @@
       <c r="AD207" t="n">
         <v>0.2778433687524597</v>
       </c>
-      <c r="AE207" t="s">
-        <v>31</v>
+      <c r="AE207" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:31">
@@ -20213,8 +20207,8 @@
       <c r="AD208" t="n">
         <v>0.123048668503214</v>
       </c>
-      <c r="AE208" t="s">
-        <v>32</v>
+      <c r="AE208" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:31">
@@ -20308,8 +20302,8 @@
       <c r="AD209" t="n">
         <v>0.06329529056801785</v>
       </c>
-      <c r="AE209" t="s">
-        <v>31</v>
+      <c r="AE209" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:31">
@@ -20403,8 +20397,8 @@
       <c r="AD210" t="n">
         <v>0.3447461629279812</v>
       </c>
-      <c r="AE210" t="s">
-        <v>32</v>
+      <c r="AE210" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:31">
@@ -20498,8 +20492,8 @@
       <c r="AD211" t="n">
         <v>0.129214220123311</v>
       </c>
-      <c r="AE211" t="s">
-        <v>32</v>
+      <c r="AE211" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:31">
@@ -20593,8 +20587,8 @@
       <c r="AD212" t="n">
         <v>0.02367834186016006</v>
       </c>
-      <c r="AE212" t="s">
-        <v>31</v>
+      <c r="AE212" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:31">
@@ -20688,8 +20682,8 @@
       <c r="AD213" t="n">
         <v>0.1632559359832088</v>
       </c>
-      <c r="AE213" t="s">
-        <v>32</v>
+      <c r="AE213" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:31">
@@ -20783,8 +20777,8 @@
       <c r="AD214" t="n">
         <v>0.001377410468319571</v>
       </c>
-      <c r="AE214" t="s">
-        <v>31</v>
+      <c r="AE214" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:31">
@@ -20878,8 +20872,8 @@
       <c r="AD215" t="n">
         <v>0.08618654073199533</v>
       </c>
-      <c r="AE215" t="s">
-        <v>31</v>
+      <c r="AE215" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:31">
@@ -20973,8 +20967,8 @@
       <c r="AD216" t="n">
         <v>0.3119506755870393</v>
       </c>
-      <c r="AE216" t="s">
-        <v>31</v>
+      <c r="AE216" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:31">
@@ -21068,8 +21062,8 @@
       <c r="AD217" t="n">
         <v>0.3335956972320609</v>
       </c>
-      <c r="AE217" t="s">
-        <v>31</v>
+      <c r="AE217" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:31">
@@ -21163,8 +21157,8 @@
       <c r="AD218" t="n">
         <v>0.1876557785648695</v>
       </c>
-      <c r="AE218" t="s">
-        <v>32</v>
+      <c r="AE218" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:31">
@@ -21258,8 +21252,8 @@
       <c r="AD219" t="n">
         <v>0.1511871966417422</v>
       </c>
-      <c r="AE219" t="s">
-        <v>32</v>
+      <c r="AE219" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:31">
@@ -21353,8 +21347,8 @@
       <c r="AD220" t="n">
         <v>0.1804407713498623</v>
       </c>
-      <c r="AE220" t="s">
-        <v>31</v>
+      <c r="AE220" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:31">
@@ -21448,8 +21442,8 @@
       <c r="AD221" t="n">
         <v>0.1353797717434081</v>
       </c>
-      <c r="AE221" t="s">
-        <v>31</v>
+      <c r="AE221" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:31">
@@ -21543,8 +21537,8 @@
       <c r="AD222" t="n">
         <v>0.2108093926275744</v>
       </c>
-      <c r="AE222" t="s">
-        <v>32</v>
+      <c r="AE222" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:31">
@@ -21638,8 +21632,8 @@
       <c r="AD223" t="n">
         <v>0.1753246753246753</v>
       </c>
-      <c r="AE223" t="s">
-        <v>32</v>
+      <c r="AE223" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:31">
@@ -21733,8 +21727,8 @@
       <c r="AD224" t="n">
         <v>0.2159910796274433</v>
       </c>
-      <c r="AE224" t="s">
-        <v>32</v>
+      <c r="AE224" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:31">
@@ -21828,8 +21822,8 @@
       <c r="AD225" t="n">
         <v>0.3368752459661551</v>
       </c>
-      <c r="AE225" t="s">
-        <v>31</v>
+      <c r="AE225" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:31">
@@ -21923,8 +21917,8 @@
       <c r="AD226" t="n">
         <v>0.1389872753509118</v>
       </c>
-      <c r="AE226" t="s">
-        <v>32</v>
+      <c r="AE226" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:31">
@@ -22018,8 +22012,8 @@
       <c r="AD227" t="n">
         <v>0.03725567361931002</v>
       </c>
-      <c r="AE227" t="s">
-        <v>32</v>
+      <c r="AE227" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:31">
@@ -22113,8 +22107,8 @@
       <c r="AD228" t="n">
         <v>0.1813590449954087</v>
       </c>
-      <c r="AE228" t="s">
-        <v>32</v>
+      <c r="AE228" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:31">
@@ -22208,8 +22202,8 @@
       <c r="AD229" t="n">
         <v>0.1874590056408239</v>
       </c>
-      <c r="AE229" t="s">
-        <v>32</v>
+      <c r="AE229" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:31">
@@ -22303,8 +22297,8 @@
       <c r="AD230" t="n">
         <v>0.2676767676767677</v>
       </c>
-      <c r="AE230" t="s">
-        <v>32</v>
+      <c r="AE230" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:31">
@@ -22398,8 +22392,8 @@
       <c r="AD231" t="n">
         <v>0.454283090646727</v>
       </c>
-      <c r="AE231" t="s">
-        <v>31</v>
+      <c r="AE231" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:31">
@@ -22493,8 +22487,8 @@
       <c r="AD232" t="n">
         <v>0.2333070969434606</v>
       </c>
-      <c r="AE232" t="s">
-        <v>31</v>
+      <c r="AE232" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:31">
@@ -22588,8 +22582,8 @@
       <c r="AD233" t="n">
         <v>0.103830512921422</v>
       </c>
-      <c r="AE233" t="s">
-        <v>32</v>
+      <c r="AE233" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:31">
@@ -22683,8 +22677,8 @@
       <c r="AD234" t="n">
         <v>0.1182605273514364</v>
       </c>
-      <c r="AE234" t="s">
-        <v>32</v>
+      <c r="AE234" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:31">
@@ -22778,8 +22772,8 @@
       <c r="AD235" t="n">
         <v>0.1852289125016398</v>
       </c>
-      <c r="AE235" t="s">
-        <v>31</v>
+      <c r="AE235" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:31">
@@ -22873,8 +22867,8 @@
       <c r="AD236" t="n">
         <v>0.1753902662993573</v>
       </c>
-      <c r="AE236" t="s">
-        <v>32</v>
+      <c r="AE236" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:31">
@@ -22968,8 +22962,8 @@
       <c r="AD237" t="n">
         <v>0.1385937295028205</v>
       </c>
-      <c r="AE237" t="s">
-        <v>32</v>
+      <c r="AE237" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:31">
@@ -23063,8 +23057,8 @@
       <c r="AD238" t="n">
         <v>0.2081201626656173</v>
       </c>
-      <c r="AE238" t="s">
-        <v>31</v>
+      <c r="AE238" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:31">
@@ -23158,8 +23152,8 @@
       <c r="AD239" t="n">
         <v>0.1064541519086974</v>
       </c>
-      <c r="AE239" t="s">
-        <v>31</v>
+      <c r="AE239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:31">
@@ -23253,8 +23247,8 @@
       <c r="AD240" t="n">
         <v>0.1503345139708776</v>
       </c>
-      <c r="AE240" t="s">
-        <v>32</v>
+      <c r="AE240" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:31">
@@ -23348,8 +23342,8 @@
       <c r="AD241" t="n">
         <v>0.1962481962481962</v>
       </c>
-      <c r="AE241" t="s">
-        <v>31</v>
+      <c r="AE241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:31">
@@ -23443,8 +23437,8 @@
       <c r="AD242" t="n">
         <v>0.06598452052997512</v>
       </c>
-      <c r="AE242" t="s">
-        <v>32</v>
+      <c r="AE242" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:31">
@@ -23538,8 +23532,8 @@
       <c r="AD243" t="n">
         <v>0.08389085661812937</v>
       </c>
-      <c r="AE243" t="s">
-        <v>32</v>
+      <c r="AE243" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:31">
@@ -23633,8 +23627,8 @@
       <c r="AD244" t="n">
         <v>0.4897022169749443</v>
       </c>
-      <c r="AE244" t="s">
-        <v>32</v>
+      <c r="AE244" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:31">
@@ -23728,8 +23722,8 @@
       <c r="AD245" t="n">
         <v>0.05358782631509907</v>
       </c>
-      <c r="AE245" t="s">
-        <v>32</v>
+      <c r="AE245" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:31">
@@ -23823,8 +23817,8 @@
       <c r="AD246" t="n">
         <v>0.1383969565787748</v>
       </c>
-      <c r="AE246" t="s">
-        <v>31</v>
+      <c r="AE246" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:31">
@@ -23918,8 +23912,8 @@
       <c r="AD247" t="n">
         <v>0.1471861471861472</v>
       </c>
-      <c r="AE247" t="s">
-        <v>32</v>
+      <c r="AE247" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:31">
@@ -24013,8 +24007,8 @@
       <c r="AD248" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="AE248" t="s">
-        <v>32</v>
+      <c r="AE248" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:31">
@@ -24108,8 +24102,8 @@
       <c r="AD249" t="n">
         <v>0.4116489571035027</v>
       </c>
-      <c r="AE249" t="s">
-        <v>32</v>
+      <c r="AE249" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:31">
@@ -24203,8 +24197,8 @@
       <c r="AD250" t="n">
         <v>0.1733569460842188</v>
       </c>
-      <c r="AE250" t="s">
-        <v>32</v>
+      <c r="AE250" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:31">
@@ -24298,8 +24292,8 @@
       <c r="AD251" t="n">
         <v>0.1511871966417422</v>
       </c>
-      <c r="AE251" t="s">
-        <v>32</v>
+      <c r="AE251" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:31">
@@ -24393,8 +24387,8 @@
       <c r="AD252" t="n">
         <v>0.1538108356290175</v>
       </c>
-      <c r="AE252" t="s">
-        <v>31</v>
+      <c r="AE252" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:31">
@@ -24488,8 +24482,8 @@
       <c r="AD253" t="n">
         <v>0.06447592811229175</v>
       </c>
-      <c r="AE253" t="s">
-        <v>32</v>
+      <c r="AE253" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:31">
@@ -24583,8 +24577,8 @@
       <c r="AD254" t="n">
         <v>0.4897022169749443</v>
       </c>
-      <c r="AE254" t="s">
-        <v>31</v>
+      <c r="AE254" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:31">
@@ -24678,8 +24672,8 @@
       <c r="AD255" t="n">
         <v>0.1711268529450347</v>
       </c>
-      <c r="AE255" t="s">
-        <v>31</v>
+      <c r="AE255" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:31">
@@ -24773,8 +24767,8 @@
       <c r="AD256" t="n">
         <v>0.2260264987537715</v>
       </c>
-      <c r="AE256" t="s">
-        <v>31</v>
+      <c r="AE256" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:31">
@@ -24868,8 +24862,8 @@
       <c r="AD257" t="n">
         <v>0.1608946608946609</v>
       </c>
-      <c r="AE257" t="s">
-        <v>31</v>
+      <c r="AE257" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:31">
@@ -24963,8 +24957,8 @@
       <c r="AD258" t="n">
         <v>0.2981765709038437</v>
       </c>
-      <c r="AE258" t="s">
-        <v>31</v>
+      <c r="AE258" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:31">
@@ -25058,8 +25052,8 @@
       <c r="AD259" t="n">
         <v>0.4201757838121475</v>
       </c>
-      <c r="AE259" t="s">
-        <v>31</v>
+      <c r="AE259" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:31">
@@ -25153,8 +25147,8 @@
       <c r="AD260" t="n">
         <v>0.3073593073593074</v>
       </c>
-      <c r="AE260" t="s">
-        <v>31</v>
+      <c r="AE260" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:31">
@@ -25248,8 +25242,8 @@
       <c r="AD261" t="n">
         <v>0.4287026105207924</v>
       </c>
-      <c r="AE261" t="s">
-        <v>31</v>
+      <c r="AE261" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:31">
@@ -25343,8 +25337,8 @@
       <c r="AD262" t="n">
         <v>0.1636494818313001</v>
       </c>
-      <c r="AE262" t="s">
-        <v>31</v>
+      <c r="AE262" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:31">
@@ -25438,8 +25432,8 @@
       <c r="AD263" t="n">
         <v>0.0663124754033845</v>
       </c>
-      <c r="AE263" t="s">
-        <v>31</v>
+      <c r="AE263" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:31">
@@ -25533,8 +25527,8 @@
       <c r="AD264" t="n">
         <v>0.1298701298701299</v>
       </c>
-      <c r="AE264" t="s">
-        <v>31</v>
+      <c r="AE264" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:31">
@@ -25628,8 +25622,8 @@
       <c r="AD265" t="n">
         <v>0.08690804145349604</v>
       </c>
-      <c r="AE265" t="s">
-        <v>31</v>
+      <c r="AE265" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:31">
@@ -25723,8 +25717,8 @@
       <c r="AD266" t="n">
         <v>0.1355109536927719</v>
       </c>
-      <c r="AE266" t="s">
-        <v>31</v>
+      <c r="AE266" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:31">
@@ -25818,8 +25812,8 @@
       <c r="AD267" t="n">
         <v>0.1780139052866326</v>
       </c>
-      <c r="AE267" t="s">
-        <v>31</v>
+      <c r="AE267" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:31">
@@ -25913,8 +25907,8 @@
       <c r="AD268" t="n">
         <v>0.136626000262364</v>
       </c>
-      <c r="AE268" t="s">
-        <v>32</v>
+      <c r="AE268" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:31">
@@ -26008,8 +26002,8 @@
       <c r="AD269" t="n">
         <v>0.09969828151646333</v>
       </c>
-      <c r="AE269" t="s">
-        <v>32</v>
+      <c r="AE269" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:31">
@@ -26103,8 +26097,8 @@
       <c r="AD270" t="n">
         <v>0.102190738554375</v>
       </c>
-      <c r="AE270" t="s">
-        <v>32</v>
+      <c r="AE270" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:31">
@@ -26198,8 +26192,8 @@
       <c r="AD271" t="n">
         <v>0.2096943460579825</v>
       </c>
-      <c r="AE271" t="s">
-        <v>32</v>
+      <c r="AE271" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:31">
@@ -26293,8 +26287,8 @@
       <c r="AD272" t="n">
         <v>0.0404040404040404</v>
       </c>
-      <c r="AE272" t="s">
-        <v>32</v>
+      <c r="AE272" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:31">
@@ -26388,8 +26382,8 @@
       <c r="AD273" t="n">
         <v>0.1651580742489833</v>
       </c>
-      <c r="AE273" t="s">
-        <v>32</v>
+      <c r="AE273" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:31">
@@ -26483,8 +26477,8 @@
       <c r="AD274" t="n">
         <v>0.2199921290830383</v>
       </c>
-      <c r="AE274" t="s">
-        <v>31</v>
+      <c r="AE274" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:31">
@@ -26578,8 +26572,8 @@
       <c r="AD275" t="n">
         <v>0.1751934933753116</v>
       </c>
-      <c r="AE275" t="s">
-        <v>32</v>
+      <c r="AE275" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:31">
@@ -26673,8 +26667,8 @@
       <c r="AD276" t="n">
         <v>0.1603043421225239</v>
       </c>
-      <c r="AE276" t="s">
-        <v>31</v>
+      <c r="AE276" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:31">
@@ -26768,8 +26762,8 @@
       <c r="AD277" t="n">
         <v>0.03469762560671654</v>
       </c>
-      <c r="AE277" t="s">
-        <v>32</v>
+      <c r="AE277" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:31">
@@ -26863,8 +26857,8 @@
       <c r="AD278" t="n">
         <v>0.0578512396694215</v>
       </c>
-      <c r="AE278" t="s">
-        <v>32</v>
+      <c r="AE278" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:31">
@@ -26958,8 +26952,8 @@
       <c r="AD279" t="n">
         <v>0.01528269710087891</v>
       </c>
-      <c r="AE279" t="s">
-        <v>31</v>
+      <c r="AE279" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:31">
@@ -27053,8 +27047,8 @@
       <c r="AD280" t="n">
         <v>0.04978354978354983</v>
       </c>
-      <c r="AE280" t="s">
-        <v>32</v>
+      <c r="AE280" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:31">
@@ -27148,8 +27142,8 @@
       <c r="AD281" t="n">
         <v>0.09235209235209238</v>
       </c>
-      <c r="AE281" t="s">
-        <v>32</v>
+      <c r="AE281" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:31">
@@ -27243,8 +27237,8 @@
       <c r="AD282" t="n">
         <v>0.276531549258822</v>
       </c>
-      <c r="AE282" t="s">
-        <v>31</v>
+      <c r="AE282" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:31">
@@ -27338,8 +27332,8 @@
       <c r="AD283" t="n">
         <v>0.07765971402335037</v>
       </c>
-      <c r="AE283" t="s">
-        <v>32</v>
+      <c r="AE283" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:31">
@@ -27433,8 +27427,8 @@
       <c r="AD284" t="n">
         <v>0.1497441951987406</v>
       </c>
-      <c r="AE284" t="s">
-        <v>31</v>
+      <c r="AE284" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:31">
@@ -27528,8 +27522,8 @@
       <c r="AD285" t="n">
         <v>0.3362193362193363</v>
       </c>
-      <c r="AE285" t="s">
-        <v>31</v>
+      <c r="AE285" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:31">
@@ -27623,8 +27617,8 @@
       <c r="AD286" t="n">
         <v>0.1064541519086974</v>
       </c>
-      <c r="AE286" t="s">
-        <v>32</v>
+      <c r="AE286" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:31">
@@ -27718,8 +27712,8 @@
       <c r="AD287" t="n">
         <v>0.06080283353010631</v>
       </c>
-      <c r="AE287" t="s">
-        <v>32</v>
+      <c r="AE287" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:31">
@@ -27813,8 +27807,8 @@
       <c r="AD288" t="n">
         <v>0.2936507936507937</v>
       </c>
-      <c r="AE288" t="s">
-        <v>32</v>
+      <c r="AE288" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:31">
@@ -27908,8 +27902,8 @@
       <c r="AD289" t="n">
         <v>0.09254886527613804</v>
       </c>
-      <c r="AE289" t="s">
-        <v>32</v>
+      <c r="AE289" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:31">
@@ -28003,8 +27997,8 @@
       <c r="AD290" t="n">
         <v>0.0987144168962351</v>
       </c>
-      <c r="AE290" t="s">
-        <v>32</v>
+      <c r="AE290" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:31">
@@ -28098,8 +28092,8 @@
       <c r="AD291" t="n">
         <v>0.09773055227600685</v>
       </c>
-      <c r="AE291" t="s">
-        <v>32</v>
+      <c r="AE291" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:31">
@@ -28193,8 +28187,8 @@
       <c r="AD292" t="n">
         <v>0.2161222615768071</v>
       </c>
-      <c r="AE292" t="s">
-        <v>32</v>
+      <c r="AE292" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:31">
@@ -28288,8 +28282,8 @@
       <c r="AD293" t="n">
         <v>0.1946740128558311</v>
       </c>
-      <c r="AE293" t="s">
-        <v>32</v>
+      <c r="AE293" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:31">
@@ -28383,8 +28377,8 @@
       <c r="AD294" t="n">
         <v>0.2676111767020858</v>
       </c>
-      <c r="AE294" t="s">
-        <v>32</v>
+      <c r="AE294" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:31">
@@ -28478,8 +28472,8 @@
       <c r="AD295" t="n">
         <v>0.09858323494687128</v>
       </c>
-      <c r="AE295" t="s">
-        <v>32</v>
+      <c r="AE295" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:31">
@@ -28573,8 +28567,8 @@
       <c r="AD296" t="n">
         <v>0.09300800209891123</v>
       </c>
-      <c r="AE296" t="s">
-        <v>32</v>
+      <c r="AE296" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:31">
@@ -28668,8 +28662,8 @@
       <c r="AD297" t="n">
         <v>0.08461235733963009</v>
       </c>
-      <c r="AE297" t="s">
-        <v>32</v>
+      <c r="AE297" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:31">
@@ -28763,8 +28757,8 @@
       <c r="AD298" t="n">
         <v>0.07470812016266565</v>
       </c>
-      <c r="AE298" t="s">
-        <v>32</v>
+      <c r="AE298" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:31">
@@ -28858,8 +28852,8 @@
       <c r="AD299" t="n">
         <v>0.09254886527613804</v>
       </c>
-      <c r="AE299" t="s">
-        <v>31</v>
+      <c r="AE299" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:31">
@@ -28953,8 +28947,8 @@
       <c r="AD300" t="n">
         <v>0.1424635970090515</v>
       </c>
-      <c r="AE300" t="s">
-        <v>32</v>
+      <c r="AE300" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:31">
@@ -29048,8 +29042,8 @@
       <c r="AD301" t="n">
         <v>0.08349731077003804</v>
       </c>
-      <c r="AE301" t="s">
-        <v>32</v>
+      <c r="AE301" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:31">
@@ -29143,8 +29137,8 @@
       <c r="AD302" t="n">
         <v>0.2902400629673357</v>
       </c>
-      <c r="AE302" t="s">
-        <v>31</v>
+      <c r="AE302" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:31">
@@ -29238,8 +29232,8 @@
       <c r="AD303" t="n">
         <v>0.1482356027810574</v>
       </c>
-      <c r="AE303" t="s">
-        <v>32</v>
+      <c r="AE303" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:31">
@@ -29333,8 +29327,8 @@
       <c r="AD304" t="n">
         <v>0.2600682146136692</v>
       </c>
-      <c r="AE304" t="s">
-        <v>31</v>
+      <c r="AE304" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:31">
@@ -29428,8 +29422,8 @@
       <c r="AD305" t="n">
         <v>0.1533516988062443</v>
       </c>
-      <c r="AE305" t="s">
-        <v>32</v>
+      <c r="AE305" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:31">
@@ -29523,8 +29517,8 @@
       <c r="AD306" t="n">
         <v>0.13997113997114</v>
       </c>
-      <c r="AE306" t="s">
-        <v>32</v>
+      <c r="AE306" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:31">
@@ -29618,8 +29612,8 @@
       <c r="AD307" t="n">
         <v>0.08139839958021776</v>
       </c>
-      <c r="AE307" t="s">
-        <v>32</v>
+      <c r="AE307" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:31">
@@ -29713,8 +29707,8 @@
       <c r="AD308" t="n">
         <v>0.1889675980585071</v>
       </c>
-      <c r="AE308" t="s">
-        <v>32</v>
+      <c r="AE308" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:31">
@@ -29808,8 +29802,8 @@
       <c r="AD309" t="n">
         <v>0.1508592417683327</v>
       </c>
-      <c r="AE309" t="s">
-        <v>32</v>
+      <c r="AE309" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:31">
@@ -29903,8 +29897,8 @@
       <c r="AD310" t="n">
         <v>0.04512659058113607</v>
       </c>
-      <c r="AE310" t="s">
-        <v>32</v>
+      <c r="AE310" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:31">
@@ -29998,8 +29992,8 @@
       <c r="AD311" t="n">
         <v>0.07057588875770694</v>
       </c>
-      <c r="AE311" t="s">
-        <v>32</v>
+      <c r="AE311" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:31">
@@ -30093,8 +30087,8 @@
       <c r="AD312" t="n">
         <v>0.09536927718745905</v>
       </c>
-      <c r="AE312" t="s">
-        <v>32</v>
+      <c r="AE312" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:31">
@@ -30188,8 +30182,8 @@
       <c r="AD313" t="n">
         <v>0.01252787616423981</v>
       </c>
-      <c r="AE313" t="s">
-        <v>32</v>
+      <c r="AE313" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:31">
@@ -30283,8 +30277,8 @@
       <c r="AD314" t="n">
         <v>0.1803095894004986</v>
       </c>
-      <c r="AE314" t="s">
-        <v>32</v>
+      <c r="AE314" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:31">
@@ -30378,8 +30372,8 @@
       <c r="AD315" t="n">
         <v>0.1265905811360357</v>
       </c>
-      <c r="AE315" t="s">
-        <v>32</v>
+      <c r="AE315" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:31">
@@ -30473,8 +30467,8 @@
       <c r="AD316" t="n">
         <v>0.1713236258690804</v>
       </c>
-      <c r="AE316" t="s">
-        <v>32</v>
+      <c r="AE316" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:31">
@@ -30568,8 +30562,8 @@
       <c r="AD317" t="n">
         <v>0.04394595303686216</v>
       </c>
-      <c r="AE317" t="s">
-        <v>32</v>
+      <c r="AE317" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:31">
@@ -30663,8 +30657,8 @@
       <c r="AD318" t="n">
         <v>0.03495998950544407</v>
       </c>
-      <c r="AE318" t="s">
-        <v>32</v>
+      <c r="AE318" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:31">
@@ -30758,8 +30752,8 @@
       <c r="AD319" t="n">
         <v>0.1767020857929949</v>
       </c>
-      <c r="AE319" t="s">
-        <v>31</v>
+      <c r="AE319" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:31">
@@ -30853,8 +30847,8 @@
       <c r="AD320" t="n">
         <v>0.3309720582447855</v>
       </c>
-      <c r="AE320" t="s">
-        <v>32</v>
+      <c r="AE320" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:31">
@@ -30948,8 +30942,8 @@
       <c r="AD321" t="n">
         <v>0.02807293716384625</v>
       </c>
-      <c r="AE321" t="s">
-        <v>32</v>
+      <c r="AE321" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:31">
@@ -31043,8 +31037,8 @@
       <c r="AD322" t="n">
         <v>0.2753509117145481</v>
       </c>
-      <c r="AE322" t="s">
-        <v>32</v>
+      <c r="AE322" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:31">
@@ -31138,8 +31132,8 @@
       <c r="AD323" t="n">
         <v>0.02813852813852816</v>
       </c>
-      <c r="AE323" t="s">
-        <v>31</v>
+      <c r="AE323" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:31">
@@ -31233,8 +31227,8 @@
       <c r="AD324" t="n">
         <v>0.1999868818050636</v>
       </c>
-      <c r="AE324" t="s">
-        <v>32</v>
+      <c r="AE324" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:31">
@@ -31328,8 +31322,8 @@
       <c r="AD325" t="n">
         <v>0.3106388560934016</v>
       </c>
-      <c r="AE325" t="s">
-        <v>31</v>
+      <c r="AE325" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:31">
@@ -31423,8 +31417,8 @@
       <c r="AD326" t="n">
         <v>0.1611570247933884</v>
       </c>
-      <c r="AE326" t="s">
-        <v>32</v>
+      <c r="AE326" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:31">
@@ -31518,8 +31512,8 @@
       <c r="AD327" t="n">
         <v>0.09077790895972714</v>
       </c>
-      <c r="AE327" t="s">
-        <v>32</v>
+      <c r="AE327" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:31">
@@ -31613,8 +31607,8 @@
       <c r="AD328" t="n">
         <v>0.1035681490226945</v>
       </c>
-      <c r="AE328" t="s">
-        <v>32</v>
+      <c r="AE328" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:31">
@@ -31708,8 +31702,8 @@
       <c r="AD329" t="n">
         <v>0.1005509641873279</v>
       </c>
-      <c r="AE329" t="s">
-        <v>32</v>
+      <c r="AE329" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:31">
@@ -31803,8 +31797,8 @@
       <c r="AD330" t="n">
         <v>0.1768332677423587</v>
       </c>
-      <c r="AE330" t="s">
-        <v>31</v>
+      <c r="AE330" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:31">
@@ -31898,8 +31892,8 @@
       <c r="AD331" t="n">
         <v>0.1606322969959334</v>
       </c>
-      <c r="AE331" t="s">
-        <v>31</v>
+      <c r="AE331" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:31">
@@ -31993,8 +31987,8 @@
       <c r="AD332" t="n">
         <v>0.2374393283484193</v>
       </c>
-      <c r="AE332" t="s">
-        <v>31</v>
+      <c r="AE332" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:31">
@@ -32088,8 +32082,8 @@
       <c r="AD333" t="n">
         <v>0.2401941492850584</v>
       </c>
-      <c r="AE333" t="s">
-        <v>32</v>
+      <c r="AE333" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:31">
@@ -32183,8 +32177,8 @@
       <c r="AD334" t="n">
         <v>0.0667716122261577</v>
       </c>
-      <c r="AE334" t="s">
-        <v>32</v>
+      <c r="AE334" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:31">
@@ -32278,8 +32272,8 @@
       <c r="AD335" t="n">
         <v>0.1255411255411255</v>
       </c>
-      <c r="AE335" t="s">
-        <v>32</v>
+      <c r="AE335" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:31">
@@ -32373,8 +32367,8 @@
       <c r="AD336" t="n">
         <v>0.111701429883248</v>
       </c>
-      <c r="AE336" t="s">
-        <v>32</v>
+      <c r="AE336" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:31">
@@ -32468,8 +32462,8 @@
       <c r="AD337" t="n">
         <v>0.1374130919585465</v>
       </c>
-      <c r="AE337" t="s">
-        <v>31</v>
+      <c r="AE337" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:31">
@@ -32563,8 +32557,8 @@
       <c r="AD338" t="n">
         <v>0.3008002098911191</v>
       </c>
-      <c r="AE338" t="s">
-        <v>32</v>
+      <c r="AE338" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:31">
@@ -32658,8 +32652,8 @@
       <c r="AD339" t="n">
         <v>0.2863701954611045</v>
       </c>
-      <c r="AE339" t="s">
-        <v>31</v>
+      <c r="AE339" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:31">
@@ -32753,8 +32747,8 @@
       <c r="AD340" t="n">
         <v>0.141676505312869</v>
       </c>
-      <c r="AE340" t="s">
-        <v>32</v>
+      <c r="AE340" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:31">
@@ -32848,8 +32842,8 @@
       <c r="AD341" t="n">
         <v>0.1465302374393284</v>
       </c>
-      <c r="AE341" t="s">
-        <v>31</v>
+      <c r="AE341" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:31">
@@ -32943,8 +32937,8 @@
       <c r="AD342" t="n">
         <v>0.2138265774629411</v>
       </c>
-      <c r="AE342" t="s">
-        <v>32</v>
+      <c r="AE342" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:31">
@@ -33038,8 +33032,8 @@
       <c r="AD343" t="n">
         <v>0.2834186016004199</v>
       </c>
-      <c r="AE343" t="s">
-        <v>32</v>
+      <c r="AE343" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:31">
@@ -33133,8 +33127,8 @@
       <c r="AD344" t="n">
         <v>0.2345533254624164</v>
       </c>
-      <c r="AE344" t="s">
-        <v>32</v>
+      <c r="AE344" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:31">
@@ -33228,8 +33222,8 @@
       <c r="AD345" t="n">
         <v>0.1583366128820675</v>
       </c>
-      <c r="AE345" t="s">
-        <v>31</v>
+      <c r="AE345" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:31">
@@ -33323,8 +33317,8 @@
       <c r="AD346" t="n">
         <v>0.1509904237176965</v>
       </c>
-      <c r="AE346" t="s">
-        <v>32</v>
+      <c r="AE346" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:31">
@@ -33418,8 +33412,8 @@
       <c r="AD347" t="n">
         <v>0.1957234684507412</v>
       </c>
-      <c r="AE347" t="s">
-        <v>32</v>
+      <c r="AE347" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:31">
@@ -33513,8 +33507,8 @@
       <c r="AD348" t="n">
         <v>0.1691591237045783</v>
       </c>
-      <c r="AE348" t="s">
-        <v>32</v>
+      <c r="AE348" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:31">
@@ -33608,8 +33602,8 @@
       <c r="AD349" t="n">
         <v>0.1759805850714942</v>
       </c>
-      <c r="AE349" t="s">
-        <v>32</v>
+      <c r="AE349" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:31">
@@ -33703,8 +33697,8 @@
       <c r="AD350" t="n">
         <v>0.2137609864882593</v>
       </c>
-      <c r="AE350" t="s">
-        <v>32</v>
+      <c r="AE350" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:31">
@@ -33798,8 +33792,8 @@
       <c r="AD351" t="n">
         <v>0.1368227731864095</v>
       </c>
-      <c r="AE351" t="s">
-        <v>32</v>
+      <c r="AE351" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:31">
@@ -33893,8 +33887,8 @@
       <c r="AD352" t="n">
         <v>0.08664567755476851</v>
       </c>
-      <c r="AE352" t="s">
-        <v>32</v>
+      <c r="AE352" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:31">
@@ -33988,8 +33982,8 @@
       <c r="AD353" t="n">
         <v>0.3276925095106913</v>
       </c>
-      <c r="AE353" t="s">
-        <v>31</v>
+      <c r="AE353" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:31">
@@ -34083,8 +34077,8 @@
       <c r="AD354" t="n">
         <v>0.2171717171717172</v>
       </c>
-      <c r="AE354" t="s">
-        <v>31</v>
+      <c r="AE354" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:31">
@@ -34178,8 +34172,8 @@
       <c r="AD355" t="n">
         <v>0.2580348943985308</v>
       </c>
-      <c r="AE355" t="s">
-        <v>31</v>
+      <c r="AE355" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:31">
@@ -34273,8 +34267,8 @@
       <c r="AD356" t="n">
         <v>0.0993047356683721</v>
       </c>
-      <c r="AE356" t="s">
-        <v>32</v>
+      <c r="AE356" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:31">
@@ -34368,8 +34362,8 @@
       <c r="AD357" t="n">
         <v>0.1104552013642923</v>
       </c>
-      <c r="AE357" t="s">
-        <v>32</v>
+      <c r="AE357" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:31">
@@ -34463,8 +34457,8 @@
       <c r="AD358" t="n">
         <v>0.184507411780139</v>
       </c>
-      <c r="AE358" t="s">
-        <v>32</v>
+      <c r="AE358" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:31">
@@ -34558,8 +34552,8 @@
       <c r="AD359" t="n">
         <v>0.105535878263151</v>
       </c>
-      <c r="AE359" t="s">
-        <v>32</v>
+      <c r="AE359" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:31">
@@ -34653,8 +34647,8 @@
       <c r="AD360" t="n">
         <v>0.1263938082119901</v>
       </c>
-      <c r="AE360" t="s">
-        <v>32</v>
+      <c r="AE360" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:31">
@@ -34748,8 +34742,8 @@
       <c r="AD361" t="n">
         <v>0.1726354453627181</v>
       </c>
-      <c r="AE361" t="s">
-        <v>32</v>
+      <c r="AE361" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:31">
@@ -34843,8 +34837,8 @@
       <c r="AD362" t="n">
         <v>0.001115046569592047</v>
       </c>
-      <c r="AE362" t="s">
-        <v>32</v>
+      <c r="AE362" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:31">
@@ -34938,8 +34932,8 @@
       <c r="AD363" t="n">
         <v>0.07569198478289389</v>
       </c>
-      <c r="AE363" t="s">
-        <v>32</v>
+      <c r="AE363" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:31">
@@ -35033,8 +35027,8 @@
       <c r="AD364" t="n">
         <v>0.1137347500983865</v>
       </c>
-      <c r="AE364" t="s">
-        <v>32</v>
+      <c r="AE364" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:31">
@@ -35128,8 +35122,8 @@
       <c r="AD365" t="n">
         <v>0.06329529056801785</v>
       </c>
-      <c r="AE365" t="s">
-        <v>32</v>
+      <c r="AE365" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:31">
@@ -35223,8 +35217,8 @@
       <c r="AD366" t="n">
         <v>0.1362980453889545</v>
       </c>
-      <c r="AE366" t="s">
-        <v>32</v>
+      <c r="AE366" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:31">
@@ -35318,8 +35312,8 @@
       <c r="AD367" t="n">
         <v>0.08074248983339889</v>
       </c>
-      <c r="AE367" t="s">
-        <v>31</v>
+      <c r="AE367" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:31">
@@ -35413,8 +35407,8 @@
       <c r="AD368" t="n">
         <v>0.1395775941230487</v>
       </c>
-      <c r="AE368" t="s">
-        <v>31</v>
+      <c r="AE368" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:31">
@@ -35508,8 +35502,8 @@
       <c r="AD369" t="n">
         <v>0.1289518562245835</v>
       </c>
-      <c r="AE369" t="s">
-        <v>32</v>
+      <c r="AE369" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:31">
@@ -35603,8 +35597,8 @@
       <c r="AD370" t="n">
         <v>0.06493506493506493</v>
       </c>
-      <c r="AE370" t="s">
-        <v>31</v>
+      <c r="AE370" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:31">
@@ -35698,8 +35692,8 @@
       <c r="AD371" t="n">
         <v>0.2013642922733832</v>
       </c>
-      <c r="AE371" t="s">
-        <v>31</v>
+      <c r="AE371" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:31">
@@ -35793,8 +35787,8 @@
       <c r="AD372" t="n">
         <v>0.2695789059425424</v>
       </c>
-      <c r="AE372" t="s">
-        <v>31</v>
+      <c r="AE372" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:31">
@@ -35888,8 +35882,8 @@
       <c r="AD373" t="n">
         <v>0.08277581004853732</v>
       </c>
-      <c r="AE373" t="s">
-        <v>32</v>
+      <c r="AE373" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:31">
@@ -35983,8 +35977,8 @@
       <c r="AD374" t="n">
         <v>0.2073986619441165</v>
       </c>
-      <c r="AE374" t="s">
-        <v>31</v>
+      <c r="AE374" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:31">
@@ -36078,8 +36072,8 @@
       <c r="AD375" t="n">
         <v>0.1017316017316018</v>
       </c>
-      <c r="AE375" t="s">
-        <v>31</v>
+      <c r="AE375" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:31">
@@ -36173,8 +36167,8 @@
       <c r="AD376" t="n">
         <v>0.1441033713760986</v>
       </c>
-      <c r="AE376" t="s">
-        <v>32</v>
+      <c r="AE376" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:31">
@@ -36268,8 +36262,8 @@
       <c r="AD377" t="n">
         <v>0.2266824085005903</v>
       </c>
-      <c r="AE377" t="s">
-        <v>32</v>
+      <c r="AE377" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:31">
@@ -36363,8 +36357,8 @@
       <c r="AD378" t="n">
         <v>0.426078971533517</v>
       </c>
-      <c r="AE378" t="s">
-        <v>32</v>
+      <c r="AE378" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:31">
@@ -36458,8 +36452,8 @@
       <c r="AD379" t="n">
         <v>0.1021251475796931</v>
       </c>
-      <c r="AE379" t="s">
-        <v>32</v>
+      <c r="AE379" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:31">
@@ -36553,8 +36547,8 @@
       <c r="AD380" t="n">
         <v>0.2711530893349075</v>
       </c>
-      <c r="AE380" t="s">
-        <v>32</v>
+      <c r="AE380" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:31">
@@ -36648,8 +36642,8 @@
       <c r="AD381" t="n">
         <v>0.5592286501377411</v>
       </c>
-      <c r="AE381" t="s">
-        <v>31</v>
+      <c r="AE381" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:31">
@@ -36743,8 +36737,8 @@
       <c r="AD382" t="n">
         <v>0.2434081070444707</v>
       </c>
-      <c r="AE382" t="s">
-        <v>32</v>
+      <c r="AE382" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:31">
@@ -36838,8 +36832,8 @@
       <c r="AD383" t="n">
         <v>0.1169487078577988</v>
       </c>
-      <c r="AE383" t="s">
-        <v>32</v>
+      <c r="AE383" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:31">
@@ -36933,8 +36927,8 @@
       <c r="AD384" t="n">
         <v>0.2521972976518432</v>
       </c>
-      <c r="AE384" t="s">
-        <v>32</v>
+      <c r="AE384" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:31">
@@ -37028,8 +37022,8 @@
       <c r="AD385" t="n">
         <v>0.3722943722943723</v>
       </c>
-      <c r="AE385" t="s">
-        <v>32</v>
+      <c r="AE385" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:31">
@@ -37123,8 +37117,8 @@
       <c r="AD386" t="n">
         <v>0.119113210022301</v>
       </c>
-      <c r="AE386" t="s">
-        <v>32</v>
+      <c r="AE386" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:31">
@@ -37218,8 +37212,8 @@
       <c r="AD387" t="n">
         <v>0.08736717827626923</v>
       </c>
-      <c r="AE387" t="s">
-        <v>31</v>
+      <c r="AE387" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:31">
@@ -37313,8 +37307,8 @@
       <c r="AD388" t="n">
         <v>0.2177620359438542</v>
       </c>
-      <c r="AE388" t="s">
-        <v>32</v>
+      <c r="AE388" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:31">
@@ -37408,8 +37402,8 @@
       <c r="AD389" t="n">
         <v>0.07339630066902794</v>
       </c>
-      <c r="AE389" t="s">
-        <v>32</v>
+      <c r="AE389" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:31">
@@ -37503,8 +37497,8 @@
       <c r="AD390" t="n">
         <v>0.3231011412829595</v>
       </c>
-      <c r="AE390" t="s">
-        <v>32</v>
+      <c r="AE390" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:31">
@@ -37598,8 +37592,8 @@
       <c r="AD391" t="n">
         <v>0.1376098648825922</v>
       </c>
-      <c r="AE391" t="s">
-        <v>31</v>
+      <c r="AE391" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:31">
@@ -37693,8 +37687,8 @@
       <c r="AD392" t="n">
         <v>0.1454807818444182</v>
       </c>
-      <c r="AE392" t="s">
-        <v>32</v>
+      <c r="AE392" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:31">
@@ -37788,8 +37782,8 @@
       <c r="AD393" t="n">
         <v>0.2204512659058114</v>
       </c>
-      <c r="AE393" t="s">
-        <v>32</v>
+      <c r="AE393" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:31">
@@ -37883,8 +37877,8 @@
       <c r="AD394" t="n">
         <v>0.3073593073593074</v>
       </c>
-      <c r="AE394" t="s">
-        <v>31</v>
+      <c r="AE394" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:31">
@@ -37978,8 +37972,8 @@
       <c r="AD395" t="n">
         <v>0.2994883903974813</v>
       </c>
-      <c r="AE395" t="s">
-        <v>31</v>
+      <c r="AE395" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:31">
@@ -38073,8 +38067,8 @@
       <c r="AD396" t="n">
         <v>0.1034369670733307</v>
       </c>
-      <c r="AE396" t="s">
-        <v>32</v>
+      <c r="AE396" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:31">
@@ -38168,8 +38162,8 @@
       <c r="AD397" t="n">
         <v>0.07247802702348156</v>
       </c>
-      <c r="AE397" t="s">
-        <v>32</v>
+      <c r="AE397" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:31">
@@ -38263,8 +38257,8 @@
       <c r="AD398" t="n">
         <v>0.1431195067558704</v>
       </c>
-      <c r="AE398" t="s">
-        <v>32</v>
+      <c r="AE398" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:31">
@@ -38358,8 +38352,8 @@
       <c r="AD399" t="n">
         <v>0.101600419782238</v>
       </c>
-      <c r="AE399" t="s">
-        <v>32</v>
+      <c r="AE399" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:31">
@@ -38453,8 +38447,8 @@
       <c r="AD400" t="n">
         <v>0.2396694214876033</v>
       </c>
-      <c r="AE400" t="s">
-        <v>32</v>
+      <c r="AE400" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:31">
@@ -38548,8 +38542,8 @@
       <c r="AD401" t="n">
         <v>0.1716515807424899</v>
       </c>
-      <c r="AE401" t="s">
-        <v>32</v>
+      <c r="AE401" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:31">
@@ -38643,8 +38637,8 @@
       <c r="AD402" t="n">
         <v>0.4247671520398794</v>
       </c>
-      <c r="AE402" t="s">
-        <v>31</v>
+      <c r="AE402" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:31">
@@ -38738,8 +38732,8 @@
       <c r="AD403" t="n">
         <v>0.1153089334907517</v>
       </c>
-      <c r="AE403" t="s">
-        <v>32</v>
+      <c r="AE403" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:31">
@@ -38833,8 +38827,8 @@
       <c r="AD404" t="n">
         <v>0.1143250688705235</v>
       </c>
-      <c r="AE404" t="s">
-        <v>32</v>
+      <c r="AE404" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:31">
@@ -38928,8 +38922,8 @@
       <c r="AD405" t="n">
         <v>0.1528269710087893</v>
       </c>
-      <c r="AE405" t="s">
-        <v>32</v>
+      <c r="AE405" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:31">
@@ -39023,8 +39017,8 @@
       <c r="AD406" t="n">
         <v>0.03082775810048539</v>
       </c>
-      <c r="AE406" t="s">
-        <v>32</v>
+      <c r="AE406" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:31">
@@ -39118,8 +39112,8 @@
       <c r="AD407" t="n">
         <v>0.1461366915912371</v>
       </c>
-      <c r="AE407" t="s">
-        <v>32</v>
+      <c r="AE407" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:31">
@@ -39213,8 +39207,8 @@
       <c r="AD408" t="n">
         <v>0.09891118982028076</v>
       </c>
-      <c r="AE408" t="s">
-        <v>32</v>
+      <c r="AE408" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:31">
@@ -39308,8 +39302,8 @@
       <c r="AD409" t="n">
         <v>0.1736193099829464</v>
       </c>
-      <c r="AE409" t="s">
-        <v>32</v>
+      <c r="AE409" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:31">
@@ -39403,8 +39397,8 @@
       <c r="AD410" t="n">
         <v>0.1967073330709694</v>
       </c>
-      <c r="AE410" t="s">
-        <v>31</v>
+      <c r="AE410" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:31">
@@ -39498,8 +39492,8 @@
       <c r="AD411" t="n">
         <v>0.09130263675718218</v>
       </c>
-      <c r="AE411" t="s">
-        <v>32</v>
+      <c r="AE411" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:31">
@@ -39593,8 +39587,8 @@
       <c r="AD412" t="n">
         <v>0.1469893742621016</v>
       </c>
-      <c r="AE412" t="s">
-        <v>32</v>
+      <c r="AE412" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:31">
@@ -39688,8 +39682,8 @@
       <c r="AD413" t="n">
         <v>0.1559097468188378</v>
       </c>
-      <c r="AE413" t="s">
-        <v>32</v>
+      <c r="AE413" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:31">
@@ -39783,8 +39777,8 @@
       <c r="AD414" t="n">
         <v>0.2428177882723338</v>
       </c>
-      <c r="AE414" t="s">
-        <v>32</v>
+      <c r="AE414" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:31">
@@ -39878,8 +39872,8 @@
       <c r="AD415" t="n">
         <v>0.2457693821330185</v>
       </c>
-      <c r="AE415" t="s">
-        <v>32</v>
+      <c r="AE415" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:31">
@@ -39973,8 +39967,8 @@
       <c r="AD416" t="n">
         <v>0.04335563426472521</v>
       </c>
-      <c r="AE416" t="s">
-        <v>31</v>
+      <c r="AE416" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:31">
@@ -40068,8 +40062,8 @@
       <c r="AD417" t="n">
         <v>0.1211465302374394</v>
       </c>
-      <c r="AE417" t="s">
-        <v>32</v>
+      <c r="AE417" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:31">
@@ -40163,8 +40157,8 @@
       <c r="AD418" t="n">
         <v>0.1836547291092746</v>
       </c>
-      <c r="AE418" t="s">
-        <v>32</v>
+      <c r="AE418" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:31">
@@ -40258,8 +40252,8 @@
       <c r="AD419" t="n">
         <v>0.3263806900170537</v>
       </c>
-      <c r="AE419" t="s">
-        <v>31</v>
+      <c r="AE419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:31">
@@ -40353,8 +40347,8 @@
       <c r="AD420" t="n">
         <v>0.2597402597402598</v>
       </c>
-      <c r="AE420" t="s">
-        <v>32</v>
+      <c r="AE420" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:31">
@@ -40448,8 +40442,8 @@
       <c r="AD421" t="n">
         <v>0.1061917880099699</v>
       </c>
-      <c r="AE421" t="s">
-        <v>32</v>
+      <c r="AE421" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:31">
@@ -40543,8 +40537,8 @@
       <c r="AD422" t="n">
         <v>0.1823429096156369</v>
       </c>
-      <c r="AE422" t="s">
-        <v>32</v>
+      <c r="AE422" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:31">
@@ -40638,8 +40632,8 @@
       <c r="AD423" t="n">
         <v>0.2429489702216975</v>
       </c>
-      <c r="AE423" t="s">
-        <v>32</v>
+      <c r="AE423" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:31">
@@ -40733,8 +40727,8 @@
       <c r="AD424" t="n">
         <v>0.1261314443132625</v>
       </c>
-      <c r="AE424" t="s">
-        <v>32</v>
+      <c r="AE424" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:31">
@@ -40828,8 +40822,8 @@
       <c r="AD425" t="n">
         <v>0.2187459005640824</v>
       </c>
-      <c r="AE425" t="s">
-        <v>32</v>
+      <c r="AE425" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:31">
@@ -40923,8 +40917,8 @@
       <c r="AD426" t="n">
         <v>0.1643053915781189</v>
       </c>
-      <c r="AE426" t="s">
-        <v>32</v>
+      <c r="AE426" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:31">
@@ -41018,8 +41012,8 @@
       <c r="AD427" t="n">
         <v>0.1677161222615768</v>
       </c>
-      <c r="AE427" t="s">
-        <v>32</v>
+      <c r="AE427" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:31">
@@ -41113,8 +41107,8 @@
       <c r="AD428" t="n">
         <v>0.2716778171323627</v>
       </c>
-      <c r="AE428" t="s">
-        <v>32</v>
+      <c r="AE428" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:31">
@@ -41208,8 +41202,8 @@
       <c r="AD429" t="n">
         <v>0.1415453233635052</v>
       </c>
-      <c r="AE429" t="s">
-        <v>32</v>
+      <c r="AE429" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:31">
@@ -41303,8 +41297,8 @@
       <c r="AD430" t="n">
         <v>0.1035681490226945</v>
       </c>
-      <c r="AE430" t="s">
-        <v>32</v>
+      <c r="AE430" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:31">
@@ -41398,8 +41392,8 @@
       <c r="AD431" t="n">
         <v>0.03417289780926144</v>
       </c>
-      <c r="AE431" t="s">
-        <v>32</v>
+      <c r="AE431" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:31">
@@ -41493,8 +41487,8 @@
       <c r="AD432" t="n">
         <v>0.3965630329266694</v>
       </c>
-      <c r="AE432" t="s">
-        <v>31</v>
+      <c r="AE432" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:31">
@@ -41588,8 +41582,8 @@
       <c r="AD433" t="n">
         <v>0.252853207398662</v>
       </c>
-      <c r="AE433" t="s">
-        <v>32</v>
+      <c r="AE433" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:31">
@@ -41683,8 +41677,8 @@
       <c r="AD434" t="n">
         <v>0.1686343959071232</v>
       </c>
-      <c r="AE434" t="s">
-        <v>31</v>
+      <c r="AE434" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:31">
@@ -41778,8 +41772,8 @@
       <c r="AD435" t="n">
         <v>0.1843106388560935</v>
       </c>
-      <c r="AE435" t="s">
-        <v>31</v>
+      <c r="AE435" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:31">
@@ -41873,8 +41867,8 @@
       <c r="AD436" t="n">
         <v>0.08677685950413223</v>
       </c>
-      <c r="AE436" t="s">
-        <v>32</v>
+      <c r="AE436" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:31">
@@ -41968,8 +41962,8 @@
       <c r="AD437" t="n">
         <v>0.3309720582447855</v>
       </c>
-      <c r="AE437" t="s">
-        <v>31</v>
+      <c r="AE437" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:31">
@@ -42063,8 +42057,8 @@
       <c r="AD438" t="n">
         <v>0.1463334645152827</v>
       </c>
-      <c r="AE438" t="s">
-        <v>32</v>
+      <c r="AE438" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:31">
@@ -42158,8 +42152,8 @@
       <c r="AD439" t="n">
         <v>0.113472386199659</v>
       </c>
-      <c r="AE439" t="s">
-        <v>32</v>
+      <c r="AE439" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:31">
@@ -42253,8 +42247,8 @@
       <c r="AD440" t="n">
         <v>0.09228650137741051</v>
       </c>
-      <c r="AE440" t="s">
-        <v>32</v>
+      <c r="AE440" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:31">
@@ -42348,8 +42342,8 @@
       <c r="AD441" t="n">
         <v>0.07910271546635189</v>
       </c>
-      <c r="AE441" t="s">
-        <v>32</v>
+      <c r="AE441" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:31">
@@ -42443,8 +42437,8 @@
       <c r="AD442" t="n">
         <v>0.2642004460186279</v>
       </c>
-      <c r="AE442" t="s">
-        <v>32</v>
+      <c r="AE442" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:31">
@@ -42538,8 +42532,8 @@
       <c r="AD443" t="n">
         <v>0.1600419782237964</v>
       </c>
-      <c r="AE443" t="s">
-        <v>31</v>
+      <c r="AE443" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:31">
@@ -42633,8 +42627,8 @@
       <c r="AD444" t="n">
         <v>0.08566181293454019</v>
       </c>
-      <c r="AE444" t="s">
-        <v>32</v>
+      <c r="AE444" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:31">
@@ -42728,8 +42722,8 @@
       <c r="AD445" t="n">
         <v>0.08080808080808084</v>
       </c>
-      <c r="AE445" t="s">
-        <v>32</v>
+      <c r="AE445" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:31">
@@ -42823,8 +42817,8 @@
       <c r="AD446" t="n">
         <v>0.1784730421094058</v>
       </c>
-      <c r="AE446" t="s">
-        <v>31</v>
+      <c r="AE446" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:31">
@@ -42918,8 +42912,8 @@
       <c r="AD447" t="n">
         <v>0.1801784074511348</v>
       </c>
-      <c r="AE447" t="s">
-        <v>32</v>
+      <c r="AE447" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:31">
@@ -43013,8 +43007,8 @@
       <c r="AD448" t="n">
         <v>0.234225370589007</v>
       </c>
-      <c r="AE448" t="s">
-        <v>31</v>
+      <c r="AE448" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:31">
@@ -43108,8 +43102,8 @@
       <c r="AD449" t="n">
         <v>0.116817525908435</v>
       </c>
-      <c r="AE449" t="s">
-        <v>32</v>
+      <c r="AE449" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:31">
@@ -43203,8 +43197,8 @@
       <c r="AD450" t="n">
         <v>0.1284927194018103</v>
       </c>
-      <c r="AE450" t="s">
-        <v>32</v>
+      <c r="AE450" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:31">
@@ -43298,8 +43292,8 @@
       <c r="AD451" t="n">
         <v>0.1260002623638987</v>
       </c>
-      <c r="AE451" t="s">
-        <v>31</v>
+      <c r="AE451" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:31">
@@ -43393,8 +43387,8 @@
       <c r="AD452" t="n">
         <v>0.291748655385019</v>
       </c>
-      <c r="AE452" t="s">
-        <v>32</v>
+      <c r="AE452" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:31">
@@ -43488,8 +43482,8 @@
       <c r="AD453" t="n">
         <v>0.03850190213826578</v>
       </c>
-      <c r="AE453" t="s">
-        <v>31</v>
+      <c r="AE453" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:31">
@@ -43583,8 +43577,8 @@
       <c r="AD454" t="n">
         <v>0.1764397218942674</v>
       </c>
-      <c r="AE454" t="s">
-        <v>32</v>
+      <c r="AE454" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:31">
@@ -43678,8 +43672,8 @@
       <c r="AD455" t="n">
         <v>0.151252787616424</v>
       </c>
-      <c r="AE455" t="s">
-        <v>32</v>
+      <c r="AE455" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:31">
@@ -43773,8 +43767,8 @@
       <c r="AD456" t="n">
         <v>0.1197691197691198</v>
       </c>
-      <c r="AE456" t="s">
-        <v>32</v>
+      <c r="AE456" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:31">
@@ -43868,8 +43862,8 @@
       <c r="AD457" t="n">
         <v>0.1423980060343697</v>
       </c>
-      <c r="AE457" t="s">
-        <v>32</v>
+      <c r="AE457" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:31">
@@ -43963,8 +43957,8 @@
       <c r="AD458" t="n">
         <v>0.1125541125541126</v>
       </c>
-      <c r="AE458" t="s">
-        <v>32</v>
+      <c r="AE458" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:31">
@@ -44058,8 +44052,8 @@
       <c r="AD459" t="n">
         <v>0.08421881149153876</v>
       </c>
-      <c r="AE459" t="s">
-        <v>32</v>
+      <c r="AE459" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:31">
@@ -44153,8 +44147,8 @@
       <c r="AD460" t="n">
         <v>0.0516200970746425</v>
       </c>
-      <c r="AE460" t="s">
-        <v>32</v>
+      <c r="AE460" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:31">
@@ -44248,8 +44242,8 @@
       <c r="AD461" t="n">
         <v>0.1119637937819756</v>
       </c>
-      <c r="AE461" t="s">
-        <v>32</v>
+      <c r="AE461" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:31">
@@ -44343,8 +44337,8 @@
       <c r="AD462" t="n">
         <v>0.2332415059687787</v>
       </c>
-      <c r="AE462" t="s">
-        <v>31</v>
+      <c r="AE462" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:31">
@@ -44438,8 +44432,8 @@
       <c r="AD463" t="n">
         <v>0.1261314443132625</v>
       </c>
-      <c r="AE463" t="s">
-        <v>31</v>
+      <c r="AE463" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:31">
@@ -44533,8 +44527,8 @@
       <c r="AD464" t="n">
         <v>0.06296733569460845</v>
       </c>
-      <c r="AE464" t="s">
-        <v>32</v>
+      <c r="AE464" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:31">
@@ -44628,8 +44622,8 @@
       <c r="AD465" t="n">
         <v>0.1547291092745639</v>
       </c>
-      <c r="AE465" t="s">
-        <v>32</v>
+      <c r="AE465" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:31">
@@ -44723,8 +44717,8 @@
       <c r="AD466" t="n">
         <v>0.0932047750229569</v>
       </c>
-      <c r="AE466" t="s">
-        <v>32</v>
+      <c r="AE466" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:31">
@@ -44818,8 +44812,8 @@
       <c r="AD467" t="n">
         <v>0.4582185491276401</v>
       </c>
-      <c r="AE467" t="s">
-        <v>32</v>
+      <c r="AE467" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:31">
@@ -44913,8 +44907,8 @@
       <c r="AD468" t="n">
         <v>0.1751279024006296</v>
       </c>
-      <c r="AE468" t="s">
-        <v>32</v>
+      <c r="AE468" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:31">
@@ -45008,8 +45002,8 @@
       <c r="AD469" t="n">
         <v>0.1555162009707464</v>
       </c>
-      <c r="AE469" t="s">
-        <v>32</v>
+      <c r="AE469" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:31">
@@ -45103,8 +45097,8 @@
       <c r="AD470" t="n">
         <v>0.4418208054571692</v>
       </c>
-      <c r="AE470" t="s">
-        <v>31</v>
+      <c r="AE470" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:31">
@@ -45198,8 +45192,8 @@
       <c r="AD471" t="n">
         <v>0.2470156106519744</v>
       </c>
-      <c r="AE471" t="s">
-        <v>32</v>
+      <c r="AE471" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:31">
@@ -45293,8 +45287,8 @@
       <c r="AD472" t="n">
         <v>0.198084743539289</v>
       </c>
-      <c r="AE472" t="s">
-        <v>32</v>
+      <c r="AE472" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:31">
@@ -45388,8 +45382,8 @@
       <c r="AD473" t="n">
         <v>0.07444575626393812</v>
       </c>
-      <c r="AE473" t="s">
-        <v>32</v>
+      <c r="AE473" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:31">
@@ -45483,8 +45477,8 @@
       <c r="AD474" t="n">
         <v>0.1816214088941362</v>
       </c>
-      <c r="AE474" t="s">
-        <v>32</v>
+      <c r="AE474" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:31">
@@ -45578,8 +45572,8 @@
       <c r="AD475" t="n">
         <v>0.08126721763085404</v>
       </c>
-      <c r="AE475" t="s">
-        <v>32</v>
+      <c r="AE475" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:31">
@@ -45673,8 +45667,8 @@
       <c r="AD476" t="n">
         <v>0.3473698019152565</v>
       </c>
-      <c r="AE476" t="s">
-        <v>32</v>
+      <c r="AE476" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:31">
@@ -45768,8 +45762,8 @@
       <c r="AD477" t="n">
         <v>0.150728059818969</v>
       </c>
-      <c r="AE477" t="s">
-        <v>32</v>
+      <c r="AE477" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:31">
@@ -45863,8 +45857,8 @@
       <c r="AD478" t="n">
         <v>0.1544011544011544</v>
       </c>
-      <c r="AE478" t="s">
-        <v>32</v>
+      <c r="AE478" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:31">
@@ -45958,8 +45952,8 @@
       <c r="AD479" t="n">
         <v>0.1439065984520531</v>
       </c>
-      <c r="AE479" t="s">
-        <v>32</v>
+      <c r="AE479" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:31">
@@ -46053,8 +46047,8 @@
       <c r="AD480" t="n">
         <v>0.2411124229306048</v>
       </c>
-      <c r="AE480" t="s">
-        <v>32</v>
+      <c r="AE480" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:31">
@@ -46148,8 +46142,8 @@
       <c r="AD481" t="n">
         <v>0.2382264200446019</v>
       </c>
-      <c r="AE481" t="s">
-        <v>31</v>
+      <c r="AE481" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:31">
@@ -46243,8 +46237,8 @@
       <c r="AD482" t="n">
         <v>0.1459399186671914</v>
       </c>
-      <c r="AE482" t="s">
-        <v>32</v>
+      <c r="AE482" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:31">
@@ -46338,8 +46332,8 @@
       <c r="AD483" t="n">
         <v>0.1376754558572741</v>
       </c>
-      <c r="AE483" t="s">
-        <v>32</v>
+      <c r="AE483" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:31">
@@ -46433,8 +46427,8 @@
       <c r="AD484" t="n">
         <v>0.2506887052341598</v>
       </c>
-      <c r="AE484" t="s">
-        <v>32</v>
+      <c r="AE484" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:31">
@@ -46528,8 +46522,8 @@
       <c r="AD485" t="n">
         <v>0.09550045913682276</v>
       </c>
-      <c r="AE485" t="s">
-        <v>32</v>
+      <c r="AE485" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:31">
@@ -46623,8 +46617,8 @@
       <c r="AD486" t="n">
         <v>0.1755870392234029</v>
       </c>
-      <c r="AE486" t="s">
-        <v>32</v>
+      <c r="AE486" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:31">
@@ -46718,8 +46712,8 @@
       <c r="AD487" t="n">
         <v>0.31719795356159</v>
       </c>
-      <c r="AE487" t="s">
-        <v>32</v>
+      <c r="AE487" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:31">
@@ -46813,8 +46807,8 @@
       <c r="AD488" t="n">
         <v>0.07162534435261712</v>
       </c>
-      <c r="AE488" t="s">
-        <v>32</v>
+      <c r="AE488" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:31">
@@ -46908,8 +46902,8 @@
       <c r="AD489" t="n">
         <v>0.2298963662600027</v>
       </c>
-      <c r="AE489" t="s">
-        <v>31</v>
+      <c r="AE489" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:31">
@@ -47003,8 +46997,8 @@
       <c r="AD490" t="n">
         <v>0.1652892561983472</v>
       </c>
-      <c r="AE490" t="s">
-        <v>32</v>
+      <c r="AE490" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:31">
@@ -47098,8 +47092,8 @@
       <c r="AD491" t="n">
         <v>0.1389872753509118</v>
       </c>
-      <c r="AE491" t="s">
-        <v>31</v>
+      <c r="AE491" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:31">
@@ -47193,8 +47187,8 @@
       <c r="AD492" t="n">
         <v>0.1770300406664044</v>
       </c>
-      <c r="AE492" t="s">
-        <v>32</v>
+      <c r="AE492" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:31">
@@ -47288,8 +47282,8 @@
       <c r="AD493" t="n">
         <v>0.02407188770825134</v>
       </c>
-      <c r="AE493" t="s">
-        <v>32</v>
+      <c r="AE493" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:31">
@@ -47383,8 +47377,8 @@
       <c r="AD494" t="n">
         <v>0.1391184573002755</v>
       </c>
-      <c r="AE494" t="s">
-        <v>31</v>
+      <c r="AE494" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:31">
@@ -47478,8 +47472,8 @@
       <c r="AD495" t="n">
         <v>0.09996064541519085</v>
       </c>
-      <c r="AE495" t="s">
-        <v>32</v>
+      <c r="AE495" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:31">
@@ -47573,8 +47567,8 @@
       <c r="AD496" t="n">
         <v>0.1262626262626262</v>
       </c>
-      <c r="AE496" t="s">
-        <v>32</v>
+      <c r="AE496" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:31">
@@ -47668,8 +47662,8 @@
       <c r="AD497" t="n">
         <v>0.0718221172766627</v>
       </c>
-      <c r="AE497" t="s">
-        <v>32</v>
+      <c r="AE497" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:31">
@@ -47763,8 +47757,8 @@
       <c r="AD498" t="n">
         <v>0.3165420438147711</v>
       </c>
-      <c r="AE498" t="s">
-        <v>32</v>
+      <c r="AE498" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:31">
@@ -47858,8 +47852,8 @@
       <c r="AD499" t="n">
         <v>0.1414797323888233</v>
       </c>
-      <c r="AE499" t="s">
-        <v>32</v>
+      <c r="AE499" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:31">
@@ -47953,8 +47947,8 @@
       <c r="AD500" t="n">
         <v>0.258494031221304</v>
       </c>
-      <c r="AE500" t="s">
-        <v>31</v>
+      <c r="AE500" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:31">
@@ -48048,8 +48042,8 @@
       <c r="AD501" t="n">
         <v>0.2292404565131838</v>
       </c>
-      <c r="AE501" t="s">
-        <v>31</v>
+      <c r="AE501" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:31">
@@ -48143,8 +48137,8 @@
       <c r="AD502" t="n">
         <v>0.1997245179063361</v>
       </c>
-      <c r="AE502" t="s">
-        <v>32</v>
+      <c r="AE502" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:31">
@@ -48238,8 +48232,8 @@
       <c r="AD503" t="n">
         <v>0.4149285058375969</v>
       </c>
-      <c r="AE503" t="s">
-        <v>31</v>
+      <c r="AE503" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:31">
@@ -48333,8 +48327,8 @@
       <c r="AD504" t="n">
         <v>0.1334120425029516</v>
       </c>
-      <c r="AE504" t="s">
-        <v>32</v>
+      <c r="AE504" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:31">
@@ -48428,8 +48422,8 @@
       <c r="AD505" t="n">
         <v>0.11629279811098</v>
       </c>
-      <c r="AE505" t="s">
-        <v>31</v>
+      <c r="AE505" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:31">
@@ -48523,8 +48517,8 @@
       <c r="AD506" t="n">
         <v>0.4601862783680966</v>
       </c>
-      <c r="AE506" t="s">
-        <v>32</v>
+      <c r="AE506" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:31">
@@ -48618,8 +48612,8 @@
       <c r="AD507" t="n">
         <v>0.5336481700118063</v>
       </c>
-      <c r="AE507" t="s">
-        <v>32</v>
+      <c r="AE507" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:31">
@@ -48713,8 +48707,8 @@
       <c r="AD508" t="n">
         <v>0.2187459005640824</v>
       </c>
-      <c r="AE508" t="s">
-        <v>32</v>
+      <c r="AE508" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:31">
@@ -48808,8 +48802,8 @@
       <c r="AD509" t="n">
         <v>0.4050898596353142</v>
       </c>
-      <c r="AE509" t="s">
-        <v>32</v>
+      <c r="AE509" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:31">
@@ -48903,8 +48897,8 @@
       <c r="AD510" t="n">
         <v>0.1132100223009314</v>
       </c>
-      <c r="AE510" t="s">
-        <v>32</v>
+      <c r="AE510" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:31">
@@ -48998,8 +48992,8 @@
       <c r="AD511" t="n">
         <v>0.3388429752066116</v>
       </c>
-      <c r="AE511" t="s">
-        <v>31</v>
+      <c r="AE511" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:31">
@@ -49093,8 +49087,8 @@
       <c r="AD512" t="n">
         <v>0.2869605142332415</v>
       </c>
-      <c r="AE512" t="s">
-        <v>32</v>
+      <c r="AE512" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:31">
@@ -49188,8 +49182,8 @@
       <c r="AD513" t="n">
         <v>0.04184704184704188</v>
       </c>
-      <c r="AE513" t="s">
-        <v>32</v>
+      <c r="AE513" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:31">
@@ -49283,8 +49277,8 @@
       <c r="AD514" t="n">
         <v>0.3663911845730028</v>
       </c>
-      <c r="AE514" t="s">
-        <v>31</v>
+      <c r="AE514" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:31">
@@ -49378,8 +49372,8 @@
       <c r="AD515" t="n">
         <v>0.1012724649088286</v>
       </c>
-      <c r="AE515" t="s">
-        <v>32</v>
+      <c r="AE515" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:31">
@@ -49473,8 +49467,8 @@
       <c r="AD516" t="n">
         <v>0.09510691328873153</v>
       </c>
-      <c r="AE516" t="s">
-        <v>31</v>
+      <c r="AE516" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:31">
@@ -49568,8 +49562,8 @@
       <c r="AD517" t="n">
         <v>0.08389085661812937</v>
       </c>
-      <c r="AE517" t="s">
-        <v>32</v>
+      <c r="AE517" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:31">
@@ -49663,8 +49657,8 @@
       <c r="AD518" t="n">
         <v>0.1547291092745639</v>
       </c>
-      <c r="AE518" t="s">
-        <v>31</v>
+      <c r="AE518" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:31">
@@ -49758,8 +49752,8 @@
       <c r="AD519" t="n">
         <v>0.2382264200446019</v>
       </c>
-      <c r="AE519" t="s">
-        <v>31</v>
+      <c r="AE519" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:31">
@@ -49853,8 +49847,8 @@
       <c r="AD520" t="n">
         <v>0.2222878131969041</v>
       </c>
-      <c r="AE520" t="s">
-        <v>32</v>
+      <c r="AE520" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:31">
@@ -49948,8 +49942,8 @@
       <c r="AD521" t="n">
         <v>0.2002492457037912</v>
       </c>
-      <c r="AE521" t="s">
-        <v>32</v>
+      <c r="AE521" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:31">
@@ -50043,8 +50037,8 @@
       <c r="AD522" t="n">
         <v>0.2281254099435918</v>
       </c>
-      <c r="AE522" t="s">
-        <v>32</v>
+      <c r="AE522" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:31">
@@ -50138,8 +50132,8 @@
       <c r="AD523" t="n">
         <v>0.2733175914994098</v>
       </c>
-      <c r="AE523" t="s">
-        <v>31</v>
+      <c r="AE523" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:31">
@@ -50233,8 +50227,8 @@
       <c r="AD524" t="n">
         <v>0.1383313656040929</v>
       </c>
-      <c r="AE524" t="s">
-        <v>32</v>
+      <c r="AE524" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:31">
@@ -50328,8 +50322,8 @@
       <c r="AD525" t="n">
         <v>0.2313393677030041</v>
       </c>
-      <c r="AE525" t="s">
-        <v>32</v>
+      <c r="AE525" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:31">
@@ -50423,8 +50417,8 @@
       <c r="AD526" t="n">
         <v>0.2430145611963795</v>
       </c>
-      <c r="AE526" t="s">
-        <v>32</v>
+      <c r="AE526" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:31">
@@ -50518,8 +50512,8 @@
       <c r="AD527" t="n">
         <v>0.3270365997638725</v>
       </c>
-      <c r="AE527" t="s">
-        <v>32</v>
+      <c r="AE527" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:31">
@@ -50613,8 +50607,8 @@
       <c r="AD528" t="n">
         <v>0.2073330709694347</v>
       </c>
-      <c r="AE528" t="s">
-        <v>32</v>
+      <c r="AE528" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:31">
@@ -50708,8 +50702,8 @@
       <c r="AD529" t="n">
         <v>0.1369539551357734</v>
       </c>
-      <c r="AE529" t="s">
-        <v>32</v>
+      <c r="AE529" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:31">
@@ -50803,8 +50797,8 @@
       <c r="AD530" t="n">
         <v>0.1147186147186147</v>
       </c>
-      <c r="AE530" t="s">
-        <v>32</v>
+      <c r="AE530" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:31">
@@ -50898,8 +50892,8 @@
       <c r="AD531" t="n">
         <v>0.1671258034894398</v>
       </c>
-      <c r="AE531" t="s">
-        <v>32</v>
+      <c r="AE531" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:31">
@@ -50993,8 +50987,8 @@
       <c r="AD532" t="n">
         <v>0.1477764659582842</v>
       </c>
-      <c r="AE532" t="s">
-        <v>32</v>
+      <c r="AE532" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:31">
@@ -51088,8 +51082,8 @@
       <c r="AD533" t="n">
         <v>0.2260264987537715</v>
       </c>
-      <c r="AE533" t="s">
-        <v>32</v>
+      <c r="AE533" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:31">
@@ -51183,8 +51177,8 @@
       <c r="AD534" t="n">
         <v>0.1494162403253313</v>
       </c>
-      <c r="AE534" t="s">
-        <v>32</v>
+      <c r="AE534" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:31">
@@ -51278,8 +51272,8 @@
       <c r="AD535" t="n">
         <v>0.0578512396694215</v>
       </c>
-      <c r="AE535" t="s">
-        <v>31</v>
+      <c r="AE535" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:31">
@@ -51373,8 +51367,8 @@
       <c r="AD536" t="n">
         <v>0.1819493637675456</v>
       </c>
-      <c r="AE536" t="s">
-        <v>32</v>
+      <c r="AE536" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:31">
@@ -51468,8 +51462,8 @@
       <c r="AD537" t="n">
         <v>0.13544536271809</v>
       </c>
-      <c r="AE537" t="s">
-        <v>31</v>
+      <c r="AE537" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:31">
@@ -51563,8 +51557,8 @@
       <c r="AD538" t="n">
         <v>0.1867375049193231</v>
       </c>
-      <c r="AE538" t="s">
-        <v>31</v>
+      <c r="AE538" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:31">
@@ -51658,8 +51652,8 @@
       <c r="AD539" t="n">
         <v>0.2929292929292929</v>
       </c>
-      <c r="AE539" t="s">
-        <v>32</v>
+      <c r="AE539" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:31">
@@ -51753,8 +51747,8 @@
       <c r="AD540" t="n">
         <v>0.2908303817394727</v>
       </c>
-      <c r="AE540" t="s">
-        <v>32</v>
+      <c r="AE540" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:31">
@@ -51848,8 +51842,8 @@
       <c r="AD541" t="n">
         <v>0.3381870654597928</v>
       </c>
-      <c r="AE541" t="s">
-        <v>32</v>
+      <c r="AE541" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:31">
@@ -51943,8 +51937,8 @@
       <c r="AD542" t="n">
         <v>0.1725042634133543</v>
       </c>
-      <c r="AE542" t="s">
-        <v>32</v>
+      <c r="AE542" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:31">
@@ -52038,8 +52032,8 @@
       <c r="AD543" t="n">
         <v>0.3099829463465827</v>
       </c>
-      <c r="AE543" t="s">
-        <v>32</v>
+      <c r="AE543" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:31">
@@ -52133,8 +52127,8 @@
       <c r="AD544" t="n">
         <v>0.09523809523809523</v>
       </c>
-      <c r="AE544" t="s">
-        <v>32</v>
+      <c r="AE544" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:31">
@@ -52228,8 +52222,8 @@
       <c r="AD545" t="n">
         <v>0.06158992522628889</v>
       </c>
-      <c r="AE545" t="s">
-        <v>32</v>
+      <c r="AE545" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:31">
@@ -52323,8 +52317,8 @@
       <c r="AD546" t="n">
         <v>0.1959858323494687</v>
       </c>
-      <c r="AE546" t="s">
-        <v>32</v>
+      <c r="AE546" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:31">
@@ -52418,8 +52412,8 @@
       <c r="AD547" t="n">
         <v>0.09504132231404958</v>
       </c>
-      <c r="AE547" t="s">
-        <v>32</v>
+      <c r="AE547" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:31">
@@ -52513,8 +52507,8 @@
       <c r="AD548" t="n">
         <v>0.1242948970221698</v>
       </c>
-      <c r="AE548" t="s">
-        <v>32</v>
+      <c r="AE548" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:31">
@@ -52608,8 +52602,8 @@
       <c r="AD549" t="n">
         <v>0.260724124360488</v>
       </c>
-      <c r="AE549" t="s">
-        <v>32</v>
+      <c r="AE549" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:31">
@@ -52703,8 +52697,8 @@
       <c r="AD550" t="n">
         <v>0.1584677948314313</v>
       </c>
-      <c r="AE550" t="s">
-        <v>32</v>
+      <c r="AE550" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:31">
@@ -52798,8 +52792,8 @@
       <c r="AD551" t="n">
         <v>0.1391840482749573</v>
       </c>
-      <c r="AE551" t="s">
-        <v>32</v>
+      <c r="AE551" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:31">
@@ -52893,8 +52887,8 @@
       <c r="AD552" t="n">
         <v>0.0713629804538896</v>
       </c>
-      <c r="AE552" t="s">
-        <v>32</v>
+      <c r="AE552" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:31">
@@ -52988,8 +52982,8 @@
       <c r="AD553" t="n">
         <v>0.1658139839958022</v>
       </c>
-      <c r="AE553" t="s">
-        <v>32</v>
+      <c r="AE553" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:31">
@@ -53083,8 +53077,8 @@
       <c r="AD554" t="n">
         <v>0.06427915518824608</v>
       </c>
-      <c r="AE554" t="s">
-        <v>32</v>
+      <c r="AE554" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:31">
@@ -53178,8 +53172,8 @@
       <c r="AD555" t="n">
         <v>0.1239013511740784</v>
       </c>
-      <c r="AE555" t="s">
-        <v>32</v>
+      <c r="AE555" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:31">
@@ -53273,8 +53267,8 @@
       <c r="AD556" t="n">
         <v>0.113997113997114</v>
       </c>
-      <c r="AE556" t="s">
-        <v>32</v>
+      <c r="AE556" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:31">
@@ -53368,8 +53362,8 @@
       <c r="AD557" t="n">
         <v>0.182277318640955</v>
       </c>
-      <c r="AE557" t="s">
-        <v>32</v>
+      <c r="AE557" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:31">
@@ -53463,8 +53457,8 @@
       <c r="AD558" t="n">
         <v>0.08120162665617209</v>
       </c>
-      <c r="AE558" t="s">
-        <v>32</v>
+      <c r="AE558" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:31">
@@ -53558,8 +53552,8 @@
       <c r="AD559" t="n">
         <v>0.09609077790895976</v>
       </c>
-      <c r="AE559" t="s">
-        <v>32</v>
+      <c r="AE559" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:31">
@@ -53653,8 +53647,8 @@
       <c r="AD560" t="n">
         <v>0.1639774367047095</v>
       </c>
-      <c r="AE560" t="s">
-        <v>32</v>
+      <c r="AE560" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:31">
@@ -53748,8 +53742,8 @@
       <c r="AD561" t="n">
         <v>0.2117276662731208</v>
       </c>
-      <c r="AE561" t="s">
-        <v>32</v>
+      <c r="AE561" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:31">
@@ -53843,8 +53837,8 @@
       <c r="AD562" t="n">
         <v>0.1847697756788667</v>
       </c>
-      <c r="AE562" t="s">
-        <v>32</v>
+      <c r="AE562" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:31">
@@ -53938,8 +53932,8 @@
       <c r="AD563" t="n">
         <v>0.02630198084743539</v>
       </c>
-      <c r="AE563" t="s">
-        <v>32</v>
+      <c r="AE563" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:31">
@@ -54033,8 +54027,8 @@
       <c r="AD564" t="n">
         <v>0.5631641086186541</v>
       </c>
-      <c r="AE564" t="s">
-        <v>31</v>
+      <c r="AE564" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:31">
@@ -54128,8 +54122,8 @@
       <c r="AD565" t="n">
         <v>0.2865669683851502</v>
       </c>
-      <c r="AE565" t="s">
-        <v>31</v>
+      <c r="AE565" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:31">
@@ -54223,8 +54217,8 @@
       <c r="AD566" t="n">
         <v>0.1056670602125148</v>
       </c>
-      <c r="AE566" t="s">
-        <v>31</v>
+      <c r="AE566" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:31">
@@ -54318,8 +54312,8 @@
       <c r="AD567" t="n">
         <v>0.07431457431457432</v>
       </c>
-      <c r="AE567" t="s">
-        <v>31</v>
+      <c r="AE567" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:31">
@@ -54413,8 +54407,8 @@
       <c r="AD568" t="n">
         <v>0.1519086973632429</v>
       </c>
-      <c r="AE568" t="s">
-        <v>31</v>
+      <c r="AE568" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:31">
@@ -54508,8 +54502,8 @@
       <c r="AD569" t="n">
         <v>0.4523153614062705</v>
       </c>
-      <c r="AE569" t="s">
-        <v>31</v>
+      <c r="AE569" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:31">
@@ -54603,8 +54597,8 @@
       <c r="AD570" t="n">
         <v>0.1006821461366916</v>
       </c>
-      <c r="AE570" t="s">
-        <v>32</v>
+      <c r="AE570" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
